--- a/JupyterNotebooks/AvgHW/RGossF-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -73,25 +85,25 @@
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -677,22 +629,22 @@
         <v>0.9930932749612043</v>
       </c>
       <c r="D3">
+        <v>1.034154526425042</v>
+      </c>
+      <c r="E3">
+        <v>0.9913674754642456</v>
+      </c>
+      <c r="F3">
+        <v>1.000023431855215</v>
+      </c>
+      <c r="G3">
+        <v>1.005089360049603</v>
+      </c>
+      <c r="H3">
         <v>1.00983092474528</v>
       </c>
-      <c r="E3">
-        <v>1.005089360049603</v>
-      </c>
-      <c r="F3">
+      <c r="I3">
         <v>0.9930932749612043</v>
-      </c>
-      <c r="G3">
-        <v>1.034154526425042</v>
-      </c>
-      <c r="H3">
-        <v>0.9913674754642453</v>
-      </c>
-      <c r="I3">
-        <v>1.000023431855215</v>
       </c>
       <c r="J3">
         <v>1.00983092474528</v>
@@ -728,7 +680,7 @@
         <v>1.005593165583432</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -739,22 +691,22 @@
         <v>0.9860689872618645</v>
       </c>
       <c r="D4">
+        <v>1.064538320365556</v>
+      </c>
+      <c r="E4">
+        <v>0.983645131545491</v>
+      </c>
+      <c r="F4">
+        <v>1.000350930346756</v>
+      </c>
+      <c r="G4">
+        <v>1.010291869281994</v>
+      </c>
+      <c r="H4">
         <v>1.016575581491411</v>
       </c>
-      <c r="E4">
-        <v>1.010291869281994</v>
-      </c>
-      <c r="F4">
+      <c r="I4">
         <v>0.9860689872618645</v>
-      </c>
-      <c r="G4">
-        <v>1.064538320365556</v>
-      </c>
-      <c r="H4">
-        <v>0.983645131545491</v>
-      </c>
-      <c r="I4">
-        <v>1.000350930346756</v>
       </c>
       <c r="J4">
         <v>1.016575581491411</v>
@@ -790,7 +742,7 @@
         <v>1.010245136715512</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,31 +750,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.977667376312905</v>
+        <v>0.9776673763129052</v>
       </c>
       <c r="D5">
+        <v>1.123478137266487</v>
+      </c>
+      <c r="E5">
+        <v>0.9681432612691246</v>
+      </c>
+      <c r="F5">
+        <v>1.00005175492749</v>
+      </c>
+      <c r="G5">
+        <v>1.017927452273455</v>
+      </c>
+      <c r="H5">
         <v>1.033576877190324</v>
       </c>
-      <c r="E5">
-        <v>1.017927452273455</v>
-      </c>
-      <c r="F5">
-        <v>0.977667376312905</v>
-      </c>
-      <c r="G5">
-        <v>1.123478137266487</v>
-      </c>
-      <c r="H5">
-        <v>0.9681432612691246</v>
-      </c>
       <c r="I5">
-        <v>1.00005175492749</v>
+        <v>0.9776673763129052</v>
       </c>
       <c r="J5">
         <v>1.033576877190324</v>
       </c>
       <c r="K5">
-        <v>0.977667376312905</v>
+        <v>0.9776673763129052</v>
       </c>
       <c r="L5">
         <v>1.017927452273455</v>
@@ -852,7 +804,7 @@
         <v>1.020140809873298</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,31 +812,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.975536271459393</v>
+        <v>0.9755362714593929</v>
       </c>
       <c r="D6">
+        <v>1.184799831835607</v>
+      </c>
+      <c r="E6">
+        <v>0.9489557639469924</v>
+      </c>
+      <c r="F6">
+        <v>0.9985524439965644</v>
+      </c>
+      <c r="G6">
+        <v>1.026264705185671</v>
+      </c>
+      <c r="H6">
         <v>1.052806252661444</v>
       </c>
-      <c r="E6">
-        <v>1.026264705185671</v>
-      </c>
-      <c r="F6">
-        <v>0.975536271459393</v>
-      </c>
-      <c r="G6">
-        <v>1.184799831835607</v>
-      </c>
-      <c r="H6">
-        <v>0.9489557639469922</v>
-      </c>
       <c r="I6">
-        <v>0.9985524439965644</v>
+        <v>0.9755362714593929</v>
       </c>
       <c r="J6">
         <v>1.052806252661444</v>
       </c>
       <c r="K6">
-        <v>0.975536271459393</v>
+        <v>0.9755362714593929</v>
       </c>
       <c r="L6">
         <v>1.026264705185671</v>
@@ -914,7 +866,7 @@
         <v>1.031152544847612</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -925,25 +877,25 @@
         <v>1.002852352437795</v>
       </c>
       <c r="D7">
-        <v>0.9987398921251857</v>
+        <v>0.999130427240647</v>
       </c>
       <c r="E7">
+        <v>0.9992532159441092</v>
+      </c>
+      <c r="F7">
+        <v>1.000181553225786</v>
+      </c>
+      <c r="G7">
         <v>0.9993370703890913</v>
       </c>
-      <c r="F7">
+      <c r="H7">
+        <v>0.9987398921251851</v>
+      </c>
+      <c r="I7">
         <v>1.002852352437795</v>
       </c>
-      <c r="G7">
-        <v>0.9991304272406466</v>
-      </c>
-      <c r="H7">
-        <v>0.9992532159441092</v>
-      </c>
-      <c r="I7">
-        <v>1.000181553225787</v>
-      </c>
       <c r="J7">
-        <v>0.9987398921251857</v>
+        <v>0.9987398921251851</v>
       </c>
       <c r="K7">
         <v>1.002852352437795</v>
@@ -952,19 +904,19 @@
         <v>0.9993370703890913</v>
       </c>
       <c r="M7">
-        <v>0.9990384812571385</v>
+        <v>0.9990384812571382</v>
       </c>
       <c r="N7">
-        <v>0.9990384812571385</v>
+        <v>0.9990384812571382</v>
       </c>
       <c r="O7">
-        <v>0.9991100594861287</v>
+        <v>0.9991100594861285</v>
       </c>
       <c r="P7">
-        <v>1.000309771650691</v>
+        <v>1.00030977165069</v>
       </c>
       <c r="Q7">
-        <v>1.000309771650691</v>
+        <v>1.00030977165069</v>
       </c>
       <c r="R7">
         <v>1.000945416847467</v>
@@ -973,10 +925,10 @@
         <v>1.000945416847467</v>
       </c>
       <c r="T7">
-        <v>0.999915751893769</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999157518937691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -987,40 +939,40 @@
         <v>1.007450599288623</v>
       </c>
       <c r="D8">
-        <v>0.9969261633546469</v>
+        <v>0.9972958296027782</v>
       </c>
       <c r="E8">
-        <v>0.9982523991780461</v>
+        <v>0.9981854298084961</v>
       </c>
       <c r="F8">
+        <v>1.000416978988016</v>
+      </c>
+      <c r="G8">
+        <v>0.9982523991780456</v>
+      </c>
+      <c r="H8">
+        <v>0.9969261633546466</v>
+      </c>
+      <c r="I8">
         <v>1.007450599288623</v>
       </c>
-      <c r="G8">
-        <v>0.9972958296027787</v>
-      </c>
-      <c r="H8">
-        <v>0.9981854298084964</v>
-      </c>
-      <c r="I8">
-        <v>1.000416978988016</v>
-      </c>
       <c r="J8">
-        <v>0.9969261633546469</v>
+        <v>0.9969261633546466</v>
       </c>
       <c r="K8">
         <v>1.007450599288623</v>
       </c>
       <c r="L8">
-        <v>0.9982523991780461</v>
+        <v>0.9982523991780456</v>
       </c>
       <c r="M8">
-        <v>0.9975892812663465</v>
+        <v>0.9975892812663461</v>
       </c>
       <c r="N8">
-        <v>0.9975892812663465</v>
+        <v>0.9975892812663461</v>
       </c>
       <c r="O8">
-        <v>0.997787997447063</v>
+        <v>0.9977879974470628</v>
       </c>
       <c r="P8">
         <v>1.000876387273772</v>
@@ -1029,16 +981,16 @@
         <v>1.000876387273772</v>
       </c>
       <c r="R8">
-        <v>1.002519940277485</v>
+        <v>1.002519940277484</v>
       </c>
       <c r="S8">
-        <v>1.002519940277485</v>
+        <v>1.002519940277484</v>
       </c>
       <c r="T8">
-        <v>0.9997545667034343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9997545667034342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1049,22 +1001,22 @@
         <v>1.010799121616522</v>
       </c>
       <c r="D9">
+        <v>0.9964266218317029</v>
+      </c>
+      <c r="E9">
+        <v>0.9971264569529559</v>
+      </c>
+      <c r="F9">
+        <v>1.000798019641689</v>
+      </c>
+      <c r="G9">
+        <v>0.9974519089473476</v>
+      </c>
+      <c r="H9">
         <v>0.9950871597795199</v>
       </c>
-      <c r="E9">
-        <v>0.9974519089473478</v>
-      </c>
-      <c r="F9">
+      <c r="I9">
         <v>1.010799121616522</v>
-      </c>
-      <c r="G9">
-        <v>0.9964266218317034</v>
-      </c>
-      <c r="H9">
-        <v>0.997126456952956</v>
-      </c>
-      <c r="I9">
-        <v>1.000798019641689</v>
       </c>
       <c r="J9">
         <v>0.9950871597795199</v>
@@ -1073,7 +1025,7 @@
         <v>1.010799121616522</v>
       </c>
       <c r="L9">
-        <v>0.9974519089473478</v>
+        <v>0.9974519089473476</v>
       </c>
       <c r="M9">
         <v>0.9962695343634338</v>
@@ -1100,7 +1052,7 @@
         <v>0.999614881461623</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1111,22 +1063,22 @@
         <v>1.02254505908114</v>
       </c>
       <c r="D10">
+        <v>0.9924349795385623</v>
+      </c>
+      <c r="E10">
+        <v>0.994076275373212</v>
+      </c>
+      <c r="F10">
+        <v>1.00155046312045</v>
+      </c>
+      <c r="G10">
+        <v>0.9948647446052087</v>
+      </c>
+      <c r="H10">
         <v>0.989986780488885</v>
       </c>
-      <c r="E10">
-        <v>0.9948647446052087</v>
-      </c>
-      <c r="F10">
+      <c r="I10">
         <v>1.02254505908114</v>
-      </c>
-      <c r="G10">
-        <v>0.9924349795385623</v>
-      </c>
-      <c r="H10">
-        <v>0.994076275373212</v>
-      </c>
-      <c r="I10">
-        <v>1.00155046312045</v>
       </c>
       <c r="J10">
         <v>0.989986780488885</v>
@@ -1162,7 +1114,7 @@
         <v>0.9992430503679098</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1173,22 +1125,22 @@
         <v>1.039458655048911</v>
       </c>
       <c r="D11">
+        <v>0.9865472149102061</v>
+      </c>
+      <c r="E11">
+        <v>0.9893229030834391</v>
+      </c>
+      <c r="F11">
+        <v>1.00297211158956</v>
+      </c>
+      <c r="G11">
+        <v>0.9913675950585404</v>
+      </c>
+      <c r="H11">
         <v>0.9820922191087962</v>
       </c>
-      <c r="E11">
-        <v>0.9913675950585404</v>
-      </c>
-      <c r="F11">
+      <c r="I11">
         <v>1.039458655048911</v>
-      </c>
-      <c r="G11">
-        <v>0.9865472149102061</v>
-      </c>
-      <c r="H11">
-        <v>0.9893229030834395</v>
-      </c>
-      <c r="I11">
-        <v>1.00297211158956</v>
       </c>
       <c r="J11">
         <v>0.9820922191087962</v>
@@ -1206,7 +1158,7 @@
         <v>0.9867299070836684</v>
       </c>
       <c r="O11">
-        <v>0.9875942390835921</v>
+        <v>0.987594239083592</v>
       </c>
       <c r="P11">
         <v>1.004306156405416</v>
@@ -1224,7 +1176,7 @@
         <v>0.9986267831332422</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,43 +1184,43 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7997830995241437</v>
+        <v>0.7997830995241434</v>
       </c>
       <c r="D12">
-        <v>0.7496650844597269</v>
+        <v>0.9597020113045059</v>
       </c>
       <c r="E12">
+        <v>1.008178661707156</v>
+      </c>
+      <c r="F12">
+        <v>1.044120691818265</v>
+      </c>
+      <c r="G12">
         <v>1.137698033442856</v>
       </c>
-      <c r="F12">
-        <v>0.7997830995241437</v>
-      </c>
-      <c r="G12">
-        <v>0.9597020113045062</v>
-      </c>
       <c r="H12">
-        <v>1.008178661707156</v>
+        <v>0.7496650844597271</v>
       </c>
       <c r="I12">
-        <v>1.044120691818265</v>
+        <v>0.7997830995241434</v>
       </c>
       <c r="J12">
-        <v>0.7496650844597269</v>
+        <v>0.7496650844597271</v>
       </c>
       <c r="K12">
-        <v>0.7997830995241437</v>
+        <v>0.7997830995241434</v>
       </c>
       <c r="L12">
         <v>1.137698033442856</v>
       </c>
       <c r="M12">
-        <v>0.9436815589512915</v>
+        <v>0.9436815589512917</v>
       </c>
       <c r="N12">
-        <v>0.9436815589512915</v>
+        <v>0.9436815589512917</v>
       </c>
       <c r="O12">
-        <v>0.9651805932032463</v>
+        <v>0.9651805932032467</v>
       </c>
       <c r="P12">
         <v>0.8957154058089088</v>
@@ -1277,16 +1229,16 @@
         <v>0.8957154058089088</v>
       </c>
       <c r="R12">
-        <v>0.8717323292377176</v>
+        <v>0.8717323292377175</v>
       </c>
       <c r="S12">
-        <v>0.8717323292377176</v>
+        <v>0.8717323292377175</v>
       </c>
       <c r="T12">
         <v>0.9498579303761091</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1297,22 +1249,22 @@
         <v>1.212438411798979</v>
       </c>
       <c r="D13">
+        <v>1.142429010762398</v>
+      </c>
+      <c r="E13">
+        <v>0.9921217950800018</v>
+      </c>
+      <c r="F13">
+        <v>0.9406486785693521</v>
+      </c>
+      <c r="G13">
+        <v>0.8302766116245317</v>
+      </c>
+      <c r="H13">
         <v>1.268981835564233</v>
       </c>
-      <c r="E13">
-        <v>0.8302766116245317</v>
-      </c>
-      <c r="F13">
+      <c r="I13">
         <v>1.212438411798979</v>
-      </c>
-      <c r="G13">
-        <v>1.142429010762398</v>
-      </c>
-      <c r="H13">
-        <v>0.9921217950800018</v>
-      </c>
-      <c r="I13">
-        <v>0.9406486785693521</v>
       </c>
       <c r="J13">
         <v>1.268981835564233</v>
@@ -1348,7 +1300,7 @@
         <v>1.064482723899916</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,31 +1308,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.5393055635557688</v>
+        <v>0.5393055635557689</v>
       </c>
       <c r="D14">
+        <v>3.239353708501928</v>
+      </c>
+      <c r="E14">
+        <v>0.1299080222276128</v>
+      </c>
+      <c r="F14">
+        <v>1.320394224057432</v>
+      </c>
+      <c r="G14">
+        <v>1.636972449125893</v>
+      </c>
+      <c r="H14">
         <v>0.01541286061306674</v>
       </c>
-      <c r="E14">
-        <v>1.636972449125893</v>
-      </c>
-      <c r="F14">
-        <v>0.5393055635557688</v>
-      </c>
-      <c r="G14">
-        <v>3.239353708501928</v>
-      </c>
-      <c r="H14">
-        <v>0.1299080222276128</v>
-      </c>
       <c r="I14">
-        <v>1.320394224057432</v>
+        <v>0.5393055635557689</v>
       </c>
       <c r="J14">
         <v>0.01541286061306674</v>
       </c>
       <c r="K14">
-        <v>0.5393055635557688</v>
+        <v>0.5393055635557689</v>
       </c>
       <c r="L14">
         <v>1.636972449125893</v>
@@ -1410,7 +1362,7 @@
         <v>1.146891138013617</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1421,22 +1373,22 @@
         <v>1.409578004869539</v>
       </c>
       <c r="D15">
+        <v>0.6710635157005969</v>
+      </c>
+      <c r="E15">
+        <v>0.6777199424130483</v>
+      </c>
+      <c r="F15">
+        <v>1.216750179240604</v>
+      </c>
+      <c r="G15">
+        <v>1.131783605331437</v>
+      </c>
+      <c r="H15">
         <v>0.2282703272202106</v>
       </c>
-      <c r="E15">
-        <v>1.131783605331437</v>
-      </c>
-      <c r="F15">
+      <c r="I15">
         <v>1.409578004869539</v>
-      </c>
-      <c r="G15">
-        <v>0.6710635157005969</v>
-      </c>
-      <c r="H15">
-        <v>0.6777199424130483</v>
-      </c>
-      <c r="I15">
-        <v>1.216750179240604</v>
       </c>
       <c r="J15">
         <v>0.2282703272202106</v>
@@ -1448,13 +1400,13 @@
         <v>1.131783605331437</v>
       </c>
       <c r="M15">
-        <v>0.6800269662758236</v>
+        <v>0.6800269662758238</v>
       </c>
       <c r="N15">
-        <v>0.6800269662758236</v>
+        <v>0.6800269662758238</v>
       </c>
       <c r="O15">
-        <v>0.6792579583215651</v>
+        <v>0.6792579583215653</v>
       </c>
       <c r="P15">
         <v>0.9232106458070621</v>
@@ -1472,7 +1424,7 @@
         <v>0.8891942624625725</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9996697959839979</v>
+        <v>0.8806685790860858</v>
       </c>
       <c r="D16">
-        <v>1.003256554350219</v>
+        <v>1.607250690710136</v>
       </c>
       <c r="E16">
-        <v>0.999264946451297</v>
+        <v>0.8384800273458959</v>
       </c>
       <c r="F16">
-        <v>0.9996697959839979</v>
+        <v>1.008705932514348</v>
       </c>
       <c r="G16">
-        <v>1.003373870267765</v>
+        <v>1.095263355421848</v>
       </c>
       <c r="H16">
-        <v>1.000043553426621</v>
+        <v>1.13205162090992</v>
       </c>
       <c r="I16">
-        <v>0.9993769022108328</v>
+        <v>0.8806685790860858</v>
       </c>
       <c r="J16">
-        <v>1.003256554350219</v>
+        <v>1.13205162090992</v>
       </c>
       <c r="K16">
-        <v>0.9996697959839979</v>
+        <v>0.8806685790860858</v>
       </c>
       <c r="L16">
-        <v>0.999264946451297</v>
+        <v>1.095263355421848</v>
       </c>
       <c r="M16">
-        <v>1.001260750400758</v>
+        <v>1.113657488165884</v>
       </c>
       <c r="N16">
-        <v>1.001260750400758</v>
+        <v>1.113657488165884</v>
       </c>
       <c r="O16">
-        <v>1.000855018076046</v>
+        <v>1.021931667892555</v>
       </c>
       <c r="P16">
-        <v>1.000730432261838</v>
+        <v>1.035994518472618</v>
       </c>
       <c r="Q16">
-        <v>1.000730432261838</v>
+        <v>1.035994518472618</v>
       </c>
       <c r="R16">
-        <v>1.000465273192378</v>
+        <v>0.9971630336259849</v>
       </c>
       <c r="S16">
-        <v>1.000465273192378</v>
+        <v>0.9971630336259849</v>
       </c>
       <c r="T16">
-        <v>1.000830937115122</v>
+        <v>1.093736700998039</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.005411945947536</v>
+        <v>0.998095891391079</v>
       </c>
       <c r="D17">
-        <v>0.99408404187815</v>
+        <v>1.383475245862678</v>
       </c>
       <c r="E17">
-        <v>0.9998500368359728</v>
+        <v>0.8664029005117128</v>
       </c>
       <c r="F17">
-        <v>1.005411945947536</v>
+        <v>1.015040523715412</v>
       </c>
       <c r="G17">
-        <v>0.9930236120682217</v>
+        <v>1.048859584794421</v>
       </c>
       <c r="H17">
-        <v>0.998891255455068</v>
+        <v>1.038629023155052</v>
       </c>
       <c r="I17">
-        <v>1.001133030494501</v>
+        <v>0.998095891391079</v>
       </c>
       <c r="J17">
-        <v>0.99408404187815</v>
+        <v>1.038629023155052</v>
       </c>
       <c r="K17">
-        <v>1.005411945947536</v>
+        <v>0.998095891391079</v>
       </c>
       <c r="L17">
-        <v>0.9998500368359728</v>
+        <v>1.048859584794421</v>
       </c>
       <c r="M17">
-        <v>0.9969670393570614</v>
+        <v>1.043744303974736</v>
       </c>
       <c r="N17">
-        <v>0.9969670393570614</v>
+        <v>1.043744303974736</v>
       </c>
       <c r="O17">
-        <v>0.9976084447230636</v>
+        <v>0.9846305028203951</v>
       </c>
       <c r="P17">
-        <v>0.999782008220553</v>
+        <v>1.02852816644685</v>
       </c>
       <c r="Q17">
-        <v>0.999782008220553</v>
+        <v>1.02852816644685</v>
       </c>
       <c r="R17">
-        <v>1.001189492652299</v>
+        <v>1.020920097682908</v>
       </c>
       <c r="S17">
-        <v>1.001189492652299</v>
+        <v>1.020920097682908</v>
       </c>
       <c r="T17">
-        <v>0.998732320446575</v>
+        <v>1.058417194905059</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9926736271684973</v>
+        <v>1.230444264324221</v>
       </c>
       <c r="D18">
-        <v>1.013928862146225</v>
+        <v>0.9380291158066859</v>
       </c>
       <c r="E18">
-        <v>1.001340476736445</v>
+        <v>0.9224635808869195</v>
       </c>
       <c r="F18">
-        <v>0.9926736271684973</v>
+        <v>1.027581608149867</v>
       </c>
       <c r="G18">
-        <v>1.024221681714204</v>
+        <v>0.9567793568178717</v>
       </c>
       <c r="H18">
-        <v>0.9975754105985962</v>
+        <v>0.8530875382467955</v>
       </c>
       <c r="I18">
-        <v>0.9979815448760131</v>
+        <v>1.230444264324221</v>
       </c>
       <c r="J18">
-        <v>1.013928862146225</v>
+        <v>0.8530875382467955</v>
       </c>
       <c r="K18">
-        <v>0.9926736271684973</v>
+        <v>1.230444264324221</v>
       </c>
       <c r="L18">
-        <v>1.001340476736445</v>
+        <v>0.9567793568178717</v>
       </c>
       <c r="M18">
-        <v>1.007634669441335</v>
+        <v>0.9049334475323336</v>
       </c>
       <c r="N18">
-        <v>1.007634669441335</v>
+        <v>0.9049334475323336</v>
       </c>
       <c r="O18">
-        <v>1.004281583160422</v>
+        <v>0.9107768253171956</v>
       </c>
       <c r="P18">
-        <v>1.002647655350389</v>
+        <v>1.01343705312963</v>
       </c>
       <c r="Q18">
-        <v>1.002647655350389</v>
+        <v>1.01343705312963</v>
       </c>
       <c r="R18">
-        <v>1.000154148304916</v>
+        <v>1.067688855928278</v>
       </c>
       <c r="S18">
-        <v>1.000154148304916</v>
+        <v>1.067688855928278</v>
       </c>
       <c r="T18">
-        <v>1.004620267206664</v>
+        <v>0.9880642440387269</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.323970943539576</v>
+      </c>
+      <c r="D19">
+        <v>0.8972833920126806</v>
+      </c>
+      <c r="E19">
+        <v>0.9134511245763901</v>
+      </c>
+      <c r="F19">
+        <v>1.023914190695089</v>
+      </c>
+      <c r="G19">
+        <v>0.9182630703548674</v>
+      </c>
+      <c r="H19">
+        <v>0.8686077623636755</v>
+      </c>
+      <c r="I19">
+        <v>1.323970943539576</v>
+      </c>
+      <c r="J19">
+        <v>0.8686077623636755</v>
+      </c>
+      <c r="K19">
+        <v>1.323970943539576</v>
+      </c>
+      <c r="L19">
+        <v>0.9182630703548674</v>
+      </c>
+      <c r="M19">
+        <v>0.8934354163592715</v>
+      </c>
+      <c r="N19">
+        <v>0.8934354163592715</v>
+      </c>
+      <c r="O19">
+        <v>0.900107319098311</v>
+      </c>
+      <c r="P19">
+        <v>1.036947258752706</v>
+      </c>
+      <c r="Q19">
+        <v>1.036947258752706</v>
+      </c>
+      <c r="R19">
+        <v>1.108703179949424</v>
+      </c>
+      <c r="S19">
+        <v>1.108703179949424</v>
+      </c>
+      <c r="T19">
+        <v>0.9909150805903799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9996697959839972</v>
+      </c>
+      <c r="D20">
+        <v>1.003373870267766</v>
+      </c>
+      <c r="E20">
+        <v>1.000043553426621</v>
+      </c>
+      <c r="F20">
+        <v>0.9993769022108328</v>
+      </c>
+      <c r="G20">
+        <v>0.9992649464512965</v>
+      </c>
+      <c r="H20">
+        <v>1.003256554350219</v>
+      </c>
+      <c r="I20">
+        <v>0.9996697959839972</v>
+      </c>
+      <c r="J20">
+        <v>1.003256554350219</v>
+      </c>
+      <c r="K20">
+        <v>0.9996697959839972</v>
+      </c>
+      <c r="L20">
+        <v>0.9992649464512965</v>
+      </c>
+      <c r="M20">
+        <v>1.001260750400758</v>
+      </c>
+      <c r="N20">
+        <v>1.001260750400758</v>
+      </c>
+      <c r="O20">
+        <v>1.000855018076046</v>
+      </c>
+      <c r="P20">
+        <v>1.000730432261838</v>
+      </c>
+      <c r="Q20">
+        <v>1.000730432261838</v>
+      </c>
+      <c r="R20">
+        <v>1.000465273192378</v>
+      </c>
+      <c r="S20">
+        <v>1.000465273192378</v>
+      </c>
+      <c r="T20">
+        <v>1.000830937115122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.005411945947536</v>
+      </c>
+      <c r="D21">
+        <v>0.9930236120682219</v>
+      </c>
+      <c r="E21">
+        <v>0.9988912554550683</v>
+      </c>
+      <c r="F21">
+        <v>1.001133030494502</v>
+      </c>
+      <c r="G21">
+        <v>0.9998500368359728</v>
+      </c>
+      <c r="H21">
+        <v>0.9940840418781506</v>
+      </c>
+      <c r="I21">
+        <v>1.005411945947536</v>
+      </c>
+      <c r="J21">
+        <v>0.9940840418781506</v>
+      </c>
+      <c r="K21">
+        <v>1.005411945947536</v>
+      </c>
+      <c r="L21">
+        <v>0.9998500368359728</v>
+      </c>
+      <c r="M21">
+        <v>0.9969670393570618</v>
+      </c>
+      <c r="N21">
+        <v>0.9969670393570618</v>
+      </c>
+      <c r="O21">
+        <v>0.9976084447230639</v>
+      </c>
+      <c r="P21">
+        <v>0.9997820082205532</v>
+      </c>
+      <c r="Q21">
+        <v>0.9997820082205532</v>
+      </c>
+      <c r="R21">
+        <v>1.001189492652299</v>
+      </c>
+      <c r="S21">
+        <v>1.001189492652299</v>
+      </c>
+      <c r="T21">
+        <v>0.9987323204465751</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9926736271684976</v>
+      </c>
+      <c r="D22">
+        <v>1.024221681714205</v>
+      </c>
+      <c r="E22">
+        <v>0.9975754105985962</v>
+      </c>
+      <c r="F22">
+        <v>0.9979815448760134</v>
+      </c>
+      <c r="G22">
+        <v>1.001340476736445</v>
+      </c>
+      <c r="H22">
+        <v>1.013928862146226</v>
+      </c>
+      <c r="I22">
+        <v>0.9926736271684976</v>
+      </c>
+      <c r="J22">
+        <v>1.013928862146226</v>
+      </c>
+      <c r="K22">
+        <v>0.9926736271684976</v>
+      </c>
+      <c r="L22">
+        <v>1.001340476736445</v>
+      </c>
+      <c r="M22">
+        <v>1.007634669441335</v>
+      </c>
+      <c r="N22">
+        <v>1.007634669441335</v>
+      </c>
+      <c r="O22">
+        <v>1.004281583160422</v>
+      </c>
+      <c r="P22">
+        <v>1.002647655350389</v>
+      </c>
+      <c r="Q22">
+        <v>1.002647655350389</v>
+      </c>
+      <c r="R22">
+        <v>1.000154148304916</v>
+      </c>
+      <c r="S22">
+        <v>1.000154148304916</v>
+      </c>
+      <c r="T22">
+        <v>1.004620267206664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.9658730703206357</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>1.087937433396838</v>
+      </c>
+      <c r="E23">
+        <v>0.9963573936051758</v>
+      </c>
+      <c r="F23">
+        <v>0.9914244851853512</v>
+      </c>
+      <c r="G23">
+        <v>1.000641874249663</v>
+      </c>
+      <c r="H23">
         <v>1.056475899523746</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>0.9658730703206357</v>
+      </c>
+      <c r="J23">
+        <v>1.056475899523746</v>
+      </c>
+      <c r="K23">
+        <v>0.9658730703206357</v>
+      </c>
+      <c r="L23">
         <v>1.000641874249663</v>
       </c>
-      <c r="F19">
-        <v>0.9658730703206357</v>
-      </c>
-      <c r="G19">
-        <v>1.087937433396838</v>
-      </c>
-      <c r="H19">
-        <v>0.9963573936051758</v>
-      </c>
-      <c r="I19">
-        <v>0.9914244851853512</v>
-      </c>
-      <c r="J19">
-        <v>1.056475899523746</v>
-      </c>
-      <c r="K19">
-        <v>0.9658730703206357</v>
-      </c>
-      <c r="L19">
-        <v>1.000641874249663</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.028558886886705</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.028558886886705</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.017825055792862</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.007663614698015</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.007663614698015</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9972159786036703</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9972159786036703</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.016451692713568</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/RGossF-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW15.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9930932749612043</v>
+        <v>1.274817591157063</v>
       </c>
       <c r="D3">
-        <v>1.034154526425042</v>
+        <v>0.9278723113507885</v>
       </c>
       <c r="E3">
-        <v>0.9913674754642456</v>
+        <v>0.9165582740561974</v>
       </c>
       <c r="F3">
-        <v>1.000023431855215</v>
+        <v>1.024612528811239</v>
       </c>
       <c r="G3">
-        <v>1.005089360049603</v>
+        <v>0.940516262139769</v>
       </c>
       <c r="H3">
-        <v>1.00983092474528</v>
+        <v>0.861076431620533</v>
       </c>
       <c r="I3">
-        <v>0.9930932749612043</v>
+        <v>1.274817591157063</v>
       </c>
       <c r="J3">
-        <v>1.00983092474528</v>
+        <v>0.861076431620533</v>
       </c>
       <c r="K3">
-        <v>0.9930932749612043</v>
+        <v>1.274817591157063</v>
       </c>
       <c r="L3">
-        <v>1.005089360049603</v>
+        <v>0.940516262139769</v>
       </c>
       <c r="M3">
-        <v>1.007460142397441</v>
+        <v>0.900796346880151</v>
       </c>
       <c r="N3">
-        <v>1.007460142397441</v>
+        <v>0.900796346880151</v>
       </c>
       <c r="O3">
-        <v>1.002095920086376</v>
+        <v>0.9060503226054998</v>
       </c>
       <c r="P3">
-        <v>1.002671186585362</v>
+        <v>1.025470094972455</v>
       </c>
       <c r="Q3">
-        <v>1.002671186585362</v>
+        <v>1.025470094972455</v>
       </c>
       <c r="R3">
-        <v>1.000276708679323</v>
+        <v>1.087806969018607</v>
       </c>
       <c r="S3">
-        <v>1.000276708679323</v>
+        <v>1.087806969018607</v>
       </c>
       <c r="T3">
-        <v>1.005593165583432</v>
+        <v>0.9909088998559318</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9860689872618645</v>
+        <v>1.250478919241899</v>
       </c>
       <c r="D4">
-        <v>1.064538320365556</v>
+        <v>0.9318350601313474</v>
       </c>
       <c r="E4">
-        <v>0.983645131545491</v>
+        <v>0.9206756691561687</v>
       </c>
       <c r="F4">
-        <v>1.000350930346756</v>
+        <v>1.025919550570256</v>
       </c>
       <c r="G4">
-        <v>1.010291869281994</v>
+        <v>0.9488953586283976</v>
       </c>
       <c r="H4">
-        <v>1.016575581491411</v>
+        <v>0.8577770445716748</v>
       </c>
       <c r="I4">
-        <v>0.9860689872618645</v>
+        <v>1.250478919241899</v>
       </c>
       <c r="J4">
-        <v>1.016575581491411</v>
+        <v>0.8577770445716748</v>
       </c>
       <c r="K4">
-        <v>0.9860689872618645</v>
+        <v>1.250478919241899</v>
       </c>
       <c r="L4">
-        <v>1.010291869281994</v>
+        <v>0.9488953586283976</v>
       </c>
       <c r="M4">
-        <v>1.013433725386702</v>
+        <v>0.9033362016000361</v>
       </c>
       <c r="N4">
-        <v>1.013433725386702</v>
+        <v>0.9033362016000361</v>
       </c>
       <c r="O4">
-        <v>1.003504194106299</v>
+        <v>0.909116024118747</v>
       </c>
       <c r="P4">
-        <v>1.004312146011756</v>
+        <v>1.019050440813991</v>
       </c>
       <c r="Q4">
-        <v>1.004312146011756</v>
+        <v>1.019050440813991</v>
       </c>
       <c r="R4">
-        <v>0.9997513563242835</v>
+        <v>1.076907560420968</v>
       </c>
       <c r="S4">
-        <v>0.9997513563242835</v>
+        <v>1.076907560420968</v>
       </c>
       <c r="T4">
-        <v>1.010245136715512</v>
+        <v>0.9892636003832908</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9776673763129052</v>
+        <v>1.323203570539084</v>
       </c>
       <c r="D5">
-        <v>1.123478137266487</v>
+        <v>0.9192643245876015</v>
       </c>
       <c r="E5">
-        <v>0.9681432612691246</v>
+        <v>0.9080524739245275</v>
       </c>
       <c r="F5">
-        <v>1.00005175492749</v>
+        <v>1.022470632021565</v>
       </c>
       <c r="G5">
-        <v>1.017927452273455</v>
+        <v>0.9243182498652308</v>
       </c>
       <c r="H5">
-        <v>1.033576877190324</v>
+        <v>0.8653479478207555</v>
       </c>
       <c r="I5">
-        <v>0.9776673763129052</v>
+        <v>1.323203570539084</v>
       </c>
       <c r="J5">
-        <v>1.033576877190324</v>
+        <v>0.8653479478207555</v>
       </c>
       <c r="K5">
-        <v>0.9776673763129052</v>
+        <v>1.323203570539084</v>
       </c>
       <c r="L5">
-        <v>1.017927452273455</v>
+        <v>0.9243182498652308</v>
       </c>
       <c r="M5">
-        <v>1.025752164731889</v>
+        <v>0.8948330988429931</v>
       </c>
       <c r="N5">
-        <v>1.025752164731889</v>
+        <v>0.8948330988429931</v>
       </c>
       <c r="O5">
-        <v>1.006549196910968</v>
+        <v>0.8992395572035047</v>
       </c>
       <c r="P5">
-        <v>1.009723901925561</v>
+        <v>1.037623256075023</v>
       </c>
       <c r="Q5">
-        <v>1.009723901925561</v>
+        <v>1.037623256075023</v>
       </c>
       <c r="R5">
-        <v>1.001709770522397</v>
+        <v>1.109018334691038</v>
       </c>
       <c r="S5">
-        <v>1.001709770522397</v>
+        <v>1.109018334691038</v>
       </c>
       <c r="T5">
-        <v>1.020140809873298</v>
+        <v>0.9937761997931274</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9755362714593929</v>
+        <v>1.370955069227274</v>
       </c>
       <c r="D6">
-        <v>1.184799831835607</v>
+        <v>0.9099400106892052</v>
       </c>
       <c r="E6">
-        <v>0.9489557639469924</v>
+        <v>0.8992943434431818</v>
       </c>
       <c r="F6">
-        <v>0.9985524439965644</v>
+        <v>1.020875402329545</v>
       </c>
       <c r="G6">
-        <v>1.026264705185671</v>
+        <v>0.9088550519886357</v>
       </c>
       <c r="H6">
-        <v>1.052806252661444</v>
+        <v>0.8669645345136366</v>
       </c>
       <c r="I6">
-        <v>0.9755362714593929</v>
+        <v>1.370955069227274</v>
       </c>
       <c r="J6">
-        <v>1.052806252661444</v>
+        <v>0.8669645345136366</v>
       </c>
       <c r="K6">
-        <v>0.9755362714593929</v>
+        <v>1.370955069227274</v>
       </c>
       <c r="L6">
-        <v>1.026264705185671</v>
+        <v>0.9088550519886357</v>
       </c>
       <c r="M6">
-        <v>1.039535478923558</v>
+        <v>0.8879097932511362</v>
       </c>
       <c r="N6">
-        <v>1.039535478923558</v>
+        <v>0.8879097932511362</v>
       </c>
       <c r="O6">
-        <v>1.009342240598036</v>
+        <v>0.8917046433151513</v>
       </c>
       <c r="P6">
-        <v>1.018202409768836</v>
+        <v>1.048924885243182</v>
       </c>
       <c r="Q6">
-        <v>1.018202409768836</v>
+        <v>1.048924885243182</v>
       </c>
       <c r="R6">
-        <v>1.007535875191475</v>
+        <v>1.129432431239205</v>
       </c>
       <c r="S6">
-        <v>1.007535875191475</v>
+        <v>1.129432431239205</v>
       </c>
       <c r="T6">
-        <v>1.031152544847612</v>
+        <v>0.9961474020319129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.002852352437795</v>
+        <v>1.114950162024041</v>
       </c>
       <c r="D7">
-        <v>0.999130427240647</v>
+        <v>0.07282709956003723</v>
       </c>
       <c r="E7">
-        <v>0.9992532159441092</v>
+        <v>1.717212630224554</v>
       </c>
       <c r="F7">
-        <v>1.000181553225786</v>
+        <v>0.6112960400323839</v>
       </c>
       <c r="G7">
-        <v>0.9993370703890913</v>
+        <v>0.413236386392195</v>
       </c>
       <c r="H7">
-        <v>0.9987398921251851</v>
+        <v>2.568006516095124</v>
       </c>
       <c r="I7">
-        <v>1.002852352437795</v>
+        <v>1.114950162024041</v>
       </c>
       <c r="J7">
-        <v>0.9987398921251851</v>
+        <v>2.568006516095124</v>
       </c>
       <c r="K7">
-        <v>1.002852352437795</v>
+        <v>1.114950162024041</v>
       </c>
       <c r="L7">
-        <v>0.9993370703890913</v>
+        <v>0.413236386392195</v>
       </c>
       <c r="M7">
-        <v>0.9990384812571382</v>
+        <v>1.49062145124366</v>
       </c>
       <c r="N7">
-        <v>0.9990384812571382</v>
+        <v>1.49062145124366</v>
       </c>
       <c r="O7">
-        <v>0.9991100594861285</v>
+        <v>1.566151844237291</v>
       </c>
       <c r="P7">
-        <v>1.00030977165069</v>
+        <v>1.365397688170453</v>
       </c>
       <c r="Q7">
-        <v>1.00030977165069</v>
+        <v>1.365397688170453</v>
       </c>
       <c r="R7">
-        <v>1.000945416847467</v>
+        <v>1.30278580663385</v>
       </c>
       <c r="S7">
-        <v>1.000945416847467</v>
+        <v>1.30278580663385</v>
       </c>
       <c r="T7">
-        <v>0.9999157518937691</v>
+        <v>1.082921472388056</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.007450599288623</v>
+        <v>1.127996090858772</v>
       </c>
       <c r="D8">
-        <v>0.9972958296027782</v>
+        <v>0.07361702122651693</v>
       </c>
       <c r="E8">
-        <v>0.9981854298084961</v>
+        <v>1.709753930853324</v>
       </c>
       <c r="F8">
-        <v>1.000416978988016</v>
+        <v>0.614231864488451</v>
       </c>
       <c r="G8">
-        <v>0.9982523991780456</v>
+        <v>0.4132776642988496</v>
       </c>
       <c r="H8">
-        <v>0.9969261633546466</v>
+        <v>2.55387400984212</v>
       </c>
       <c r="I8">
-        <v>1.007450599288623</v>
+        <v>1.127996090858772</v>
       </c>
       <c r="J8">
-        <v>0.9969261633546466</v>
+        <v>2.55387400984212</v>
       </c>
       <c r="K8">
-        <v>1.007450599288623</v>
+        <v>1.127996090858772</v>
       </c>
       <c r="L8">
-        <v>0.9982523991780456</v>
+        <v>0.4132776642988496</v>
       </c>
       <c r="M8">
-        <v>0.9975892812663461</v>
+        <v>1.483575837070485</v>
       </c>
       <c r="N8">
-        <v>0.9975892812663461</v>
+        <v>1.483575837070485</v>
       </c>
       <c r="O8">
-        <v>0.9977879974470628</v>
+        <v>1.558968534998098</v>
       </c>
       <c r="P8">
-        <v>1.000876387273772</v>
+        <v>1.365049254999914</v>
       </c>
       <c r="Q8">
-        <v>1.000876387273772</v>
+        <v>1.365049254999914</v>
       </c>
       <c r="R8">
-        <v>1.002519940277484</v>
+        <v>1.305785963964628</v>
       </c>
       <c r="S8">
-        <v>1.002519940277484</v>
+        <v>1.305785963964628</v>
       </c>
       <c r="T8">
-        <v>0.9997545667034342</v>
+        <v>1.082125096928006</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.010799121616522</v>
+        <v>1.138162763383217</v>
       </c>
       <c r="D9">
-        <v>0.9964266218317029</v>
+        <v>0.07423002416291763</v>
       </c>
       <c r="E9">
-        <v>0.9971264569529559</v>
+        <v>1.704044302369207</v>
       </c>
       <c r="F9">
-        <v>1.000798019641689</v>
+        <v>0.6163801194536268</v>
       </c>
       <c r="G9">
-        <v>0.9974519089473476</v>
+        <v>0.4131933501677074</v>
       </c>
       <c r="H9">
-        <v>0.9950871597795199</v>
+        <v>2.543987668820598</v>
       </c>
       <c r="I9">
-        <v>1.010799121616522</v>
+        <v>1.138162763383217</v>
       </c>
       <c r="J9">
-        <v>0.9950871597795199</v>
+        <v>2.543987668820598</v>
       </c>
       <c r="K9">
-        <v>1.010799121616522</v>
+        <v>1.138162763383217</v>
       </c>
       <c r="L9">
-        <v>0.9974519089473476</v>
+        <v>0.4131933501677074</v>
       </c>
       <c r="M9">
-        <v>0.9962695343634338</v>
+        <v>1.478590509494153</v>
       </c>
       <c r="N9">
-        <v>0.9962695343634338</v>
+        <v>1.478590509494153</v>
       </c>
       <c r="O9">
-        <v>0.9965551752266079</v>
+        <v>1.553741773785837</v>
       </c>
       <c r="P9">
-        <v>1.001112730114463</v>
+        <v>1.365114594123841</v>
       </c>
       <c r="Q9">
-        <v>1.001112730114463</v>
+        <v>1.365114594123841</v>
       </c>
       <c r="R9">
-        <v>1.003534327989978</v>
+        <v>1.308376636438685</v>
       </c>
       <c r="S9">
-        <v>1.003534327989978</v>
+        <v>1.308376636438685</v>
       </c>
       <c r="T9">
-        <v>0.999614881461623</v>
+        <v>1.081666371392879</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.02254505908114</v>
+        <v>1.175635110344521</v>
       </c>
       <c r="D10">
-        <v>0.9924349795385623</v>
+        <v>0.07649070978004475</v>
       </c>
       <c r="E10">
-        <v>0.994076275373212</v>
+        <v>1.683010601722543</v>
       </c>
       <c r="F10">
-        <v>1.00155046312045</v>
+        <v>0.6243427963155277</v>
       </c>
       <c r="G10">
-        <v>0.9948647446052087</v>
+        <v>0.4129400462502412</v>
       </c>
       <c r="H10">
-        <v>0.989986780488885</v>
+        <v>2.506849130668813</v>
       </c>
       <c r="I10">
-        <v>1.02254505908114</v>
+        <v>1.175635110344521</v>
       </c>
       <c r="J10">
-        <v>0.989986780488885</v>
+        <v>2.506849130668813</v>
       </c>
       <c r="K10">
-        <v>1.02254505908114</v>
+        <v>1.175635110344521</v>
       </c>
       <c r="L10">
-        <v>0.9948647446052087</v>
+        <v>0.4129400462502412</v>
       </c>
       <c r="M10">
-        <v>0.9924257625470468</v>
+        <v>1.459894588459527</v>
       </c>
       <c r="N10">
-        <v>0.9924257625470468</v>
+        <v>1.459894588459527</v>
       </c>
       <c r="O10">
-        <v>0.9929759334891018</v>
+        <v>1.534266592880532</v>
       </c>
       <c r="P10">
-        <v>1.002465528058411</v>
+        <v>1.365141429087858</v>
       </c>
       <c r="Q10">
-        <v>1.002465528058411</v>
+        <v>1.365141429087858</v>
       </c>
       <c r="R10">
-        <v>1.007485410814094</v>
+        <v>1.317764849402024</v>
       </c>
       <c r="S10">
-        <v>1.007485410814094</v>
+        <v>1.317764849402024</v>
       </c>
       <c r="T10">
-        <v>0.9992430503679098</v>
+        <v>1.079878065846948</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.039458655048911</v>
+        <v>0.9918725954980357</v>
       </c>
       <c r="D11">
-        <v>0.9865472149102061</v>
+        <v>1.030196654376188</v>
       </c>
       <c r="E11">
-        <v>0.9893229030834391</v>
+        <v>0.9945825050419091</v>
       </c>
       <c r="F11">
-        <v>1.00297211158956</v>
+        <v>0.9989896867900607</v>
       </c>
       <c r="G11">
-        <v>0.9913675950585404</v>
+        <v>1.003332075370879</v>
       </c>
       <c r="H11">
-        <v>0.9820922191087962</v>
+        <v>1.01215044688674</v>
       </c>
       <c r="I11">
-        <v>1.039458655048911</v>
+        <v>0.9918725954980357</v>
       </c>
       <c r="J11">
-        <v>0.9820922191087962</v>
+        <v>1.01215044688674</v>
       </c>
       <c r="K11">
-        <v>1.039458655048911</v>
+        <v>0.9918725954980357</v>
       </c>
       <c r="L11">
-        <v>0.9913675950585404</v>
+        <v>1.003332075370879</v>
       </c>
       <c r="M11">
-        <v>0.9867299070836684</v>
+        <v>1.007741261128809</v>
       </c>
       <c r="N11">
-        <v>0.9867299070836684</v>
+        <v>1.007741261128809</v>
       </c>
       <c r="O11">
-        <v>0.987594239083592</v>
+        <v>1.003355009099843</v>
       </c>
       <c r="P11">
-        <v>1.004306156405416</v>
+        <v>1.002451705918552</v>
       </c>
       <c r="Q11">
-        <v>1.004306156405416</v>
+        <v>1.002451705918552</v>
       </c>
       <c r="R11">
-        <v>1.01309428106629</v>
+        <v>0.9998069283134225</v>
       </c>
       <c r="S11">
-        <v>1.01309428106629</v>
+        <v>0.9998069283134225</v>
       </c>
       <c r="T11">
-        <v>0.9986267831332422</v>
+        <v>1.005187327327302</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7997830995241434</v>
+        <v>0.9968351111135051</v>
       </c>
       <c r="D12">
-        <v>0.9597020113045059</v>
+        <v>1.01303634179719</v>
       </c>
       <c r="E12">
-        <v>1.008178661707156</v>
+        <v>0.9989422466577587</v>
       </c>
       <c r="F12">
-        <v>1.044120691818265</v>
+        <v>0.998250889157087</v>
       </c>
       <c r="G12">
-        <v>1.137698033442856</v>
+        <v>0.9999312457761532</v>
       </c>
       <c r="H12">
-        <v>0.7496650844597271</v>
+        <v>1.012407073772915</v>
       </c>
       <c r="I12">
-        <v>0.7997830995241434</v>
+        <v>0.9968351111135051</v>
       </c>
       <c r="J12">
-        <v>0.7496650844597271</v>
+        <v>1.012407073772915</v>
       </c>
       <c r="K12">
-        <v>0.7997830995241434</v>
+        <v>0.9968351111135051</v>
       </c>
       <c r="L12">
-        <v>1.137698033442856</v>
+        <v>0.9999312457761532</v>
       </c>
       <c r="M12">
-        <v>0.9436815589512917</v>
+        <v>1.006169159774534</v>
       </c>
       <c r="N12">
-        <v>0.9436815589512917</v>
+        <v>1.006169159774534</v>
       </c>
       <c r="O12">
-        <v>0.9651805932032467</v>
+        <v>1.003760188735609</v>
       </c>
       <c r="P12">
-        <v>0.8957154058089088</v>
+        <v>1.003057810220858</v>
       </c>
       <c r="Q12">
-        <v>0.8957154058089088</v>
+        <v>1.003057810220858</v>
       </c>
       <c r="R12">
-        <v>0.8717323292377175</v>
+        <v>1.00150213544402</v>
       </c>
       <c r="S12">
-        <v>0.8717323292377175</v>
+        <v>1.00150213544402</v>
       </c>
       <c r="T12">
-        <v>0.9498579303761091</v>
+        <v>1.003233818045768</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.212438411798979</v>
+        <v>0.987209676499454</v>
       </c>
       <c r="D13">
-        <v>1.142429010762398</v>
+        <v>1.051045510047339</v>
       </c>
       <c r="E13">
-        <v>0.9921217950800018</v>
+        <v>0.993829653885857</v>
       </c>
       <c r="F13">
-        <v>0.9406486785693521</v>
+        <v>0.9951214571002834</v>
       </c>
       <c r="G13">
-        <v>0.8302766116245317</v>
+        <v>1.001774370631149</v>
       </c>
       <c r="H13">
-        <v>1.268981835564233</v>
+        <v>1.038982410347624</v>
       </c>
       <c r="I13">
-        <v>1.212438411798979</v>
+        <v>0.987209676499454</v>
       </c>
       <c r="J13">
-        <v>1.268981835564233</v>
+        <v>1.038982410347624</v>
       </c>
       <c r="K13">
-        <v>1.212438411798979</v>
+        <v>0.987209676499454</v>
       </c>
       <c r="L13">
-        <v>0.8302766116245317</v>
+        <v>1.001774370631149</v>
       </c>
       <c r="M13">
-        <v>1.049629223594382</v>
+        <v>1.020378390489386</v>
       </c>
       <c r="N13">
-        <v>1.049629223594382</v>
+        <v>1.020378390489386</v>
       </c>
       <c r="O13">
-        <v>1.030460080756256</v>
+        <v>1.011528811621543</v>
       </c>
       <c r="P13">
-        <v>1.103898952995915</v>
+        <v>1.009322152492742</v>
       </c>
       <c r="Q13">
-        <v>1.103898952995915</v>
+        <v>1.009322152492742</v>
       </c>
       <c r="R13">
-        <v>1.131033817696681</v>
+        <v>1.00379403349442</v>
       </c>
       <c r="S13">
-        <v>1.131033817696681</v>
+        <v>1.00379403349442</v>
       </c>
       <c r="T13">
-        <v>1.064482723899916</v>
+        <v>1.011327179751951</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.5393055635557689</v>
+        <v>0.982323086350228</v>
       </c>
       <c r="D14">
-        <v>3.239353708501928</v>
+        <v>1.091559617637693</v>
       </c>
       <c r="E14">
-        <v>0.1299080222276128</v>
+        <v>0.9765803352851596</v>
       </c>
       <c r="F14">
-        <v>1.320394224057432</v>
+        <v>1.000384242358035</v>
       </c>
       <c r="G14">
-        <v>1.636972449125893</v>
+        <v>1.013646875268507</v>
       </c>
       <c r="H14">
-        <v>0.01541286061306674</v>
+        <v>1.024851457594838</v>
       </c>
       <c r="I14">
-        <v>0.5393055635557689</v>
+        <v>0.982323086350228</v>
       </c>
       <c r="J14">
-        <v>0.01541286061306674</v>
+        <v>1.024851457594838</v>
       </c>
       <c r="K14">
-        <v>0.5393055635557689</v>
+        <v>0.982323086350228</v>
       </c>
       <c r="L14">
-        <v>1.636972449125893</v>
+        <v>1.013646875268507</v>
       </c>
       <c r="M14">
-        <v>0.8261926548694798</v>
+        <v>1.019249166431673</v>
       </c>
       <c r="N14">
-        <v>0.8261926548694798</v>
+        <v>1.019249166431673</v>
       </c>
       <c r="O14">
-        <v>0.5940977773221908</v>
+        <v>1.005026222716168</v>
       </c>
       <c r="P14">
-        <v>0.7305636244315762</v>
+        <v>1.006940473071191</v>
       </c>
       <c r="Q14">
-        <v>0.7305636244315762</v>
+        <v>1.006940473071191</v>
       </c>
       <c r="R14">
-        <v>0.6827491092126243</v>
+        <v>1.00078612639095</v>
       </c>
       <c r="S14">
-        <v>0.6827491092126243</v>
+        <v>1.00078612639095</v>
       </c>
       <c r="T14">
-        <v>1.146891138013617</v>
+        <v>1.014890935749077</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.409578004869539</v>
+        <v>0.9930932749612043</v>
       </c>
       <c r="D15">
-        <v>0.6710635157005969</v>
+        <v>1.034154526425042</v>
       </c>
       <c r="E15">
-        <v>0.6777199424130483</v>
+        <v>0.9913674754642456</v>
       </c>
       <c r="F15">
-        <v>1.216750179240604</v>
+        <v>1.000023431855215</v>
       </c>
       <c r="G15">
-        <v>1.131783605331437</v>
+        <v>1.005089360049603</v>
       </c>
       <c r="H15">
-        <v>0.2282703272202106</v>
+        <v>1.00983092474528</v>
       </c>
       <c r="I15">
-        <v>1.409578004869539</v>
+        <v>0.9930932749612043</v>
       </c>
       <c r="J15">
-        <v>0.2282703272202106</v>
+        <v>1.00983092474528</v>
       </c>
       <c r="K15">
-        <v>1.409578004869539</v>
+        <v>0.9930932749612043</v>
       </c>
       <c r="L15">
-        <v>1.131783605331437</v>
+        <v>1.005089360049603</v>
       </c>
       <c r="M15">
-        <v>0.6800269662758238</v>
+        <v>1.007460142397441</v>
       </c>
       <c r="N15">
-        <v>0.6800269662758238</v>
+        <v>1.007460142397441</v>
       </c>
       <c r="O15">
-        <v>0.6792579583215653</v>
+        <v>1.002095920086376</v>
       </c>
       <c r="P15">
-        <v>0.9232106458070621</v>
+        <v>1.002671186585362</v>
       </c>
       <c r="Q15">
-        <v>0.9232106458070621</v>
+        <v>1.002671186585362</v>
       </c>
       <c r="R15">
-        <v>1.044802485572681</v>
+        <v>1.000276708679323</v>
       </c>
       <c r="S15">
-        <v>1.044802485572681</v>
+        <v>1.000276708679323</v>
       </c>
       <c r="T15">
-        <v>0.8891942624625725</v>
+        <v>1.005593165583432</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8806685790860858</v>
+        <v>0.9860689872618645</v>
       </c>
       <c r="D16">
-        <v>1.607250690710136</v>
+        <v>1.064538320365556</v>
       </c>
       <c r="E16">
-        <v>0.8384800273458959</v>
+        <v>0.983645131545491</v>
       </c>
       <c r="F16">
-        <v>1.008705932514348</v>
+        <v>1.000350930346756</v>
       </c>
       <c r="G16">
-        <v>1.095263355421848</v>
+        <v>1.010291869281994</v>
       </c>
       <c r="H16">
-        <v>1.13205162090992</v>
+        <v>1.016575581491411</v>
       </c>
       <c r="I16">
-        <v>0.8806685790860858</v>
+        <v>0.9860689872618645</v>
       </c>
       <c r="J16">
-        <v>1.13205162090992</v>
+        <v>1.016575581491411</v>
       </c>
       <c r="K16">
-        <v>0.8806685790860858</v>
+        <v>0.9860689872618645</v>
       </c>
       <c r="L16">
-        <v>1.095263355421848</v>
+        <v>1.010291869281994</v>
       </c>
       <c r="M16">
-        <v>1.113657488165884</v>
+        <v>1.013433725386702</v>
       </c>
       <c r="N16">
-        <v>1.113657488165884</v>
+        <v>1.013433725386702</v>
       </c>
       <c r="O16">
-        <v>1.021931667892555</v>
+        <v>1.003504194106299</v>
       </c>
       <c r="P16">
-        <v>1.035994518472618</v>
+        <v>1.004312146011756</v>
       </c>
       <c r="Q16">
-        <v>1.035994518472618</v>
+        <v>1.004312146011756</v>
       </c>
       <c r="R16">
-        <v>0.9971630336259849</v>
+        <v>0.9997513563242835</v>
       </c>
       <c r="S16">
-        <v>0.9971630336259849</v>
+        <v>0.9997513563242835</v>
       </c>
       <c r="T16">
-        <v>1.093736700998039</v>
+        <v>1.010245136715512</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.998095891391079</v>
+        <v>0.9776673763129052</v>
       </c>
       <c r="D17">
-        <v>1.383475245862678</v>
+        <v>1.123478137266487</v>
       </c>
       <c r="E17">
-        <v>0.8664029005117128</v>
+        <v>0.9681432612691246</v>
       </c>
       <c r="F17">
-        <v>1.015040523715412</v>
+        <v>1.00005175492749</v>
       </c>
       <c r="G17">
-        <v>1.048859584794421</v>
+        <v>1.017927452273455</v>
       </c>
       <c r="H17">
-        <v>1.038629023155052</v>
+        <v>1.033576877190324</v>
       </c>
       <c r="I17">
-        <v>0.998095891391079</v>
+        <v>0.9776673763129052</v>
       </c>
       <c r="J17">
-        <v>1.038629023155052</v>
+        <v>1.033576877190324</v>
       </c>
       <c r="K17">
-        <v>0.998095891391079</v>
+        <v>0.9776673763129052</v>
       </c>
       <c r="L17">
-        <v>1.048859584794421</v>
+        <v>1.017927452273455</v>
       </c>
       <c r="M17">
-        <v>1.043744303974736</v>
+        <v>1.025752164731889</v>
       </c>
       <c r="N17">
-        <v>1.043744303974736</v>
+        <v>1.025752164731889</v>
       </c>
       <c r="O17">
-        <v>0.9846305028203951</v>
+        <v>1.006549196910968</v>
       </c>
       <c r="P17">
-        <v>1.02852816644685</v>
+        <v>1.009723901925561</v>
       </c>
       <c r="Q17">
-        <v>1.02852816644685</v>
+        <v>1.009723901925561</v>
       </c>
       <c r="R17">
-        <v>1.020920097682908</v>
+        <v>1.001709770522397</v>
       </c>
       <c r="S17">
-        <v>1.020920097682908</v>
+        <v>1.001709770522397</v>
       </c>
       <c r="T17">
-        <v>1.058417194905059</v>
+        <v>1.020140809873298</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.230444264324221</v>
+        <v>0.9755362714593929</v>
       </c>
       <c r="D18">
-        <v>0.9380291158066859</v>
+        <v>1.184799831835607</v>
       </c>
       <c r="E18">
-        <v>0.9224635808869195</v>
+        <v>0.9489557639469924</v>
       </c>
       <c r="F18">
-        <v>1.027581608149867</v>
+        <v>0.9985524439965644</v>
       </c>
       <c r="G18">
-        <v>0.9567793568178717</v>
+        <v>1.026264705185671</v>
       </c>
       <c r="H18">
-        <v>0.8530875382467955</v>
+        <v>1.052806252661444</v>
       </c>
       <c r="I18">
-        <v>1.230444264324221</v>
+        <v>0.9755362714593929</v>
       </c>
       <c r="J18">
-        <v>0.8530875382467955</v>
+        <v>1.052806252661444</v>
       </c>
       <c r="K18">
-        <v>1.230444264324221</v>
+        <v>0.9755362714593929</v>
       </c>
       <c r="L18">
-        <v>0.9567793568178717</v>
+        <v>1.026264705185671</v>
       </c>
       <c r="M18">
-        <v>0.9049334475323336</v>
+        <v>1.039535478923558</v>
       </c>
       <c r="N18">
-        <v>0.9049334475323336</v>
+        <v>1.039535478923558</v>
       </c>
       <c r="O18">
-        <v>0.9107768253171956</v>
+        <v>1.009342240598036</v>
       </c>
       <c r="P18">
-        <v>1.01343705312963</v>
+        <v>1.018202409768836</v>
       </c>
       <c r="Q18">
-        <v>1.01343705312963</v>
+        <v>1.018202409768836</v>
       </c>
       <c r="R18">
-        <v>1.067688855928278</v>
+        <v>1.007535875191475</v>
       </c>
       <c r="S18">
-        <v>1.067688855928278</v>
+        <v>1.007535875191475</v>
       </c>
       <c r="T18">
-        <v>0.9880642440387269</v>
+        <v>1.031152544847612</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.323970943539576</v>
+        <v>1.002852352437795</v>
       </c>
       <c r="D19">
-        <v>0.8972833920126806</v>
+        <v>0.999130427240647</v>
       </c>
       <c r="E19">
-        <v>0.9134511245763901</v>
+        <v>0.9992532159441092</v>
       </c>
       <c r="F19">
-        <v>1.023914190695089</v>
+        <v>1.000181553225786</v>
       </c>
       <c r="G19">
-        <v>0.9182630703548674</v>
+        <v>0.9993370703890913</v>
       </c>
       <c r="H19">
-        <v>0.8686077623636755</v>
+        <v>0.9987398921251851</v>
       </c>
       <c r="I19">
-        <v>1.323970943539576</v>
+        <v>1.002852352437795</v>
       </c>
       <c r="J19">
-        <v>0.8686077623636755</v>
+        <v>0.9987398921251851</v>
       </c>
       <c r="K19">
-        <v>1.323970943539576</v>
+        <v>1.002852352437795</v>
       </c>
       <c r="L19">
-        <v>0.9182630703548674</v>
+        <v>0.9993370703890913</v>
       </c>
       <c r="M19">
-        <v>0.8934354163592715</v>
+        <v>0.9990384812571382</v>
       </c>
       <c r="N19">
-        <v>0.8934354163592715</v>
+        <v>0.9990384812571382</v>
       </c>
       <c r="O19">
-        <v>0.900107319098311</v>
+        <v>0.9991100594861285</v>
       </c>
       <c r="P19">
-        <v>1.036947258752706</v>
+        <v>1.00030977165069</v>
       </c>
       <c r="Q19">
-        <v>1.036947258752706</v>
+        <v>1.00030977165069</v>
       </c>
       <c r="R19">
-        <v>1.108703179949424</v>
+        <v>1.000945416847467</v>
       </c>
       <c r="S19">
-        <v>1.108703179949424</v>
+        <v>1.000945416847467</v>
       </c>
       <c r="T19">
-        <v>0.9909150805903799</v>
+        <v>0.9999157518937691</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9996697959839972</v>
+        <v>1.007450599288623</v>
       </c>
       <c r="D20">
-        <v>1.003373870267766</v>
+        <v>0.9972958296027782</v>
       </c>
       <c r="E20">
-        <v>1.000043553426621</v>
+        <v>0.9981854298084961</v>
       </c>
       <c r="F20">
-        <v>0.9993769022108328</v>
+        <v>1.000416978988016</v>
       </c>
       <c r="G20">
-        <v>0.9992649464512965</v>
+        <v>0.9982523991780456</v>
       </c>
       <c r="H20">
-        <v>1.003256554350219</v>
+        <v>0.9969261633546466</v>
       </c>
       <c r="I20">
-        <v>0.9996697959839972</v>
+        <v>1.007450599288623</v>
       </c>
       <c r="J20">
-        <v>1.003256554350219</v>
+        <v>0.9969261633546466</v>
       </c>
       <c r="K20">
-        <v>0.9996697959839972</v>
+        <v>1.007450599288623</v>
       </c>
       <c r="L20">
-        <v>0.9992649464512965</v>
+        <v>0.9982523991780456</v>
       </c>
       <c r="M20">
-        <v>1.001260750400758</v>
+        <v>0.9975892812663461</v>
       </c>
       <c r="N20">
-        <v>1.001260750400758</v>
+        <v>0.9975892812663461</v>
       </c>
       <c r="O20">
-        <v>1.000855018076046</v>
+        <v>0.9977879974470628</v>
       </c>
       <c r="P20">
-        <v>1.000730432261838</v>
+        <v>1.000876387273772</v>
       </c>
       <c r="Q20">
-        <v>1.000730432261838</v>
+        <v>1.000876387273772</v>
       </c>
       <c r="R20">
-        <v>1.000465273192378</v>
+        <v>1.002519940277484</v>
       </c>
       <c r="S20">
-        <v>1.000465273192378</v>
+        <v>1.002519940277484</v>
       </c>
       <c r="T20">
-        <v>1.000830937115122</v>
+        <v>0.9997545667034342</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.005411945947536</v>
+        <v>1.010799121616522</v>
       </c>
       <c r="D21">
-        <v>0.9930236120682219</v>
+        <v>0.9964266218317029</v>
       </c>
       <c r="E21">
-        <v>0.9988912554550683</v>
+        <v>0.9971264569529559</v>
       </c>
       <c r="F21">
-        <v>1.001133030494502</v>
+        <v>1.000798019641689</v>
       </c>
       <c r="G21">
-        <v>0.9998500368359728</v>
+        <v>0.9974519089473476</v>
       </c>
       <c r="H21">
-        <v>0.9940840418781506</v>
+        <v>0.9950871597795199</v>
       </c>
       <c r="I21">
-        <v>1.005411945947536</v>
+        <v>1.010799121616522</v>
       </c>
       <c r="J21">
-        <v>0.9940840418781506</v>
+        <v>0.9950871597795199</v>
       </c>
       <c r="K21">
-        <v>1.005411945947536</v>
+        <v>1.010799121616522</v>
       </c>
       <c r="L21">
-        <v>0.9998500368359728</v>
+        <v>0.9974519089473476</v>
       </c>
       <c r="M21">
-        <v>0.9969670393570618</v>
+        <v>0.9962695343634338</v>
       </c>
       <c r="N21">
-        <v>0.9969670393570618</v>
+        <v>0.9962695343634338</v>
       </c>
       <c r="O21">
-        <v>0.9976084447230639</v>
+        <v>0.9965551752266079</v>
       </c>
       <c r="P21">
-        <v>0.9997820082205532</v>
+        <v>1.001112730114463</v>
       </c>
       <c r="Q21">
-        <v>0.9997820082205532</v>
+        <v>1.001112730114463</v>
       </c>
       <c r="R21">
-        <v>1.001189492652299</v>
+        <v>1.003534327989978</v>
       </c>
       <c r="S21">
-        <v>1.001189492652299</v>
+        <v>1.003534327989978</v>
       </c>
       <c r="T21">
-        <v>0.9987323204465751</v>
+        <v>0.999614881461623</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9926736271684976</v>
+        <v>1.02254505908114</v>
       </c>
       <c r="D22">
-        <v>1.024221681714205</v>
+        <v>0.9924349795385623</v>
       </c>
       <c r="E22">
-        <v>0.9975754105985962</v>
+        <v>0.994076275373212</v>
       </c>
       <c r="F22">
-        <v>0.9979815448760134</v>
+        <v>1.00155046312045</v>
       </c>
       <c r="G22">
-        <v>1.001340476736445</v>
+        <v>0.9948647446052087</v>
       </c>
       <c r="H22">
-        <v>1.013928862146226</v>
+        <v>0.989986780488885</v>
       </c>
       <c r="I22">
-        <v>0.9926736271684976</v>
+        <v>1.02254505908114</v>
       </c>
       <c r="J22">
-        <v>1.013928862146226</v>
+        <v>0.989986780488885</v>
       </c>
       <c r="K22">
-        <v>0.9926736271684976</v>
+        <v>1.02254505908114</v>
       </c>
       <c r="L22">
-        <v>1.001340476736445</v>
+        <v>0.9948647446052087</v>
       </c>
       <c r="M22">
-        <v>1.007634669441335</v>
+        <v>0.9924257625470468</v>
       </c>
       <c r="N22">
-        <v>1.007634669441335</v>
+        <v>0.9924257625470468</v>
       </c>
       <c r="O22">
-        <v>1.004281583160422</v>
+        <v>0.9929759334891018</v>
       </c>
       <c r="P22">
-        <v>1.002647655350389</v>
+        <v>1.002465528058411</v>
       </c>
       <c r="Q22">
-        <v>1.002647655350389</v>
+        <v>1.002465528058411</v>
       </c>
       <c r="R22">
-        <v>1.000154148304916</v>
+        <v>1.007485410814094</v>
       </c>
       <c r="S22">
-        <v>1.000154148304916</v>
+        <v>1.007485410814094</v>
       </c>
       <c r="T22">
-        <v>1.004620267206664</v>
+        <v>0.9992430503679098</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.039458655048911</v>
+      </c>
+      <c r="D23">
+        <v>0.9865472149102061</v>
+      </c>
+      <c r="E23">
+        <v>0.9893229030834391</v>
+      </c>
+      <c r="F23">
+        <v>1.00297211158956</v>
+      </c>
+      <c r="G23">
+        <v>0.9913675950585404</v>
+      </c>
+      <c r="H23">
+        <v>0.9820922191087962</v>
+      </c>
+      <c r="I23">
+        <v>1.039458655048911</v>
+      </c>
+      <c r="J23">
+        <v>0.9820922191087962</v>
+      </c>
+      <c r="K23">
+        <v>1.039458655048911</v>
+      </c>
+      <c r="L23">
+        <v>0.9913675950585404</v>
+      </c>
+      <c r="M23">
+        <v>0.9867299070836684</v>
+      </c>
+      <c r="N23">
+        <v>0.9867299070836684</v>
+      </c>
+      <c r="O23">
+        <v>0.987594239083592</v>
+      </c>
+      <c r="P23">
+        <v>1.004306156405416</v>
+      </c>
+      <c r="Q23">
+        <v>1.004306156405416</v>
+      </c>
+      <c r="R23">
+        <v>1.01309428106629</v>
+      </c>
+      <c r="S23">
+        <v>1.01309428106629</v>
+      </c>
+      <c r="T23">
+        <v>0.9986267831332422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.7997830995241434</v>
+      </c>
+      <c r="D24">
+        <v>0.9597020113045059</v>
+      </c>
+      <c r="E24">
+        <v>1.008178661707156</v>
+      </c>
+      <c r="F24">
+        <v>1.044120691818265</v>
+      </c>
+      <c r="G24">
+        <v>1.137698033442856</v>
+      </c>
+      <c r="H24">
+        <v>0.7496650844597271</v>
+      </c>
+      <c r="I24">
+        <v>0.7997830995241434</v>
+      </c>
+      <c r="J24">
+        <v>0.7496650844597271</v>
+      </c>
+      <c r="K24">
+        <v>0.7997830995241434</v>
+      </c>
+      <c r="L24">
+        <v>1.137698033442856</v>
+      </c>
+      <c r="M24">
+        <v>0.9436815589512917</v>
+      </c>
+      <c r="N24">
+        <v>0.9436815589512917</v>
+      </c>
+      <c r="O24">
+        <v>0.9651805932032467</v>
+      </c>
+      <c r="P24">
+        <v>0.8957154058089088</v>
+      </c>
+      <c r="Q24">
+        <v>0.8957154058089088</v>
+      </c>
+      <c r="R24">
+        <v>0.8717323292377175</v>
+      </c>
+      <c r="S24">
+        <v>0.8717323292377175</v>
+      </c>
+      <c r="T24">
+        <v>0.9498579303761091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.212438411798979</v>
+      </c>
+      <c r="D25">
+        <v>1.142429010762398</v>
+      </c>
+      <c r="E25">
+        <v>0.9921217950800018</v>
+      </c>
+      <c r="F25">
+        <v>0.9406486785693521</v>
+      </c>
+      <c r="G25">
+        <v>0.8302766116245317</v>
+      </c>
+      <c r="H25">
+        <v>1.268981835564233</v>
+      </c>
+      <c r="I25">
+        <v>1.212438411798979</v>
+      </c>
+      <c r="J25">
+        <v>1.268981835564233</v>
+      </c>
+      <c r="K25">
+        <v>1.212438411798979</v>
+      </c>
+      <c r="L25">
+        <v>0.8302766116245317</v>
+      </c>
+      <c r="M25">
+        <v>1.049629223594382</v>
+      </c>
+      <c r="N25">
+        <v>1.049629223594382</v>
+      </c>
+      <c r="O25">
+        <v>1.030460080756256</v>
+      </c>
+      <c r="P25">
+        <v>1.103898952995915</v>
+      </c>
+      <c r="Q25">
+        <v>1.103898952995915</v>
+      </c>
+      <c r="R25">
+        <v>1.131033817696681</v>
+      </c>
+      <c r="S25">
+        <v>1.131033817696681</v>
+      </c>
+      <c r="T25">
+        <v>1.064482723899916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.5393055635557689</v>
+      </c>
+      <c r="D26">
+        <v>3.239353708501928</v>
+      </c>
+      <c r="E26">
+        <v>0.1299080222276128</v>
+      </c>
+      <c r="F26">
+        <v>1.320394224057432</v>
+      </c>
+      <c r="G26">
+        <v>1.636972449125893</v>
+      </c>
+      <c r="H26">
+        <v>0.01541286061306674</v>
+      </c>
+      <c r="I26">
+        <v>0.5393055635557689</v>
+      </c>
+      <c r="J26">
+        <v>0.01541286061306674</v>
+      </c>
+      <c r="K26">
+        <v>0.5393055635557689</v>
+      </c>
+      <c r="L26">
+        <v>1.636972449125893</v>
+      </c>
+      <c r="M26">
+        <v>0.8261926548694798</v>
+      </c>
+      <c r="N26">
+        <v>0.8261926548694798</v>
+      </c>
+      <c r="O26">
+        <v>0.5940977773221908</v>
+      </c>
+      <c r="P26">
+        <v>0.7305636244315762</v>
+      </c>
+      <c r="Q26">
+        <v>0.7305636244315762</v>
+      </c>
+      <c r="R26">
+        <v>0.6827491092126243</v>
+      </c>
+      <c r="S26">
+        <v>0.6827491092126243</v>
+      </c>
+      <c r="T26">
+        <v>1.146891138013617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.409578004869539</v>
+      </c>
+      <c r="D27">
+        <v>0.6710635157005969</v>
+      </c>
+      <c r="E27">
+        <v>0.6777199424130483</v>
+      </c>
+      <c r="F27">
+        <v>1.216750179240604</v>
+      </c>
+      <c r="G27">
+        <v>1.131783605331437</v>
+      </c>
+      <c r="H27">
+        <v>0.2282703272202106</v>
+      </c>
+      <c r="I27">
+        <v>1.409578004869539</v>
+      </c>
+      <c r="J27">
+        <v>0.2282703272202106</v>
+      </c>
+      <c r="K27">
+        <v>1.409578004869539</v>
+      </c>
+      <c r="L27">
+        <v>1.131783605331437</v>
+      </c>
+      <c r="M27">
+        <v>0.6800269662758238</v>
+      </c>
+      <c r="N27">
+        <v>0.6800269662758238</v>
+      </c>
+      <c r="O27">
+        <v>0.6792579583215653</v>
+      </c>
+      <c r="P27">
+        <v>0.9232106458070621</v>
+      </c>
+      <c r="Q27">
+        <v>0.9232106458070621</v>
+      </c>
+      <c r="R27">
+        <v>1.044802485572681</v>
+      </c>
+      <c r="S27">
+        <v>1.044802485572681</v>
+      </c>
+      <c r="T27">
+        <v>0.8891942624625725</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8806685790860858</v>
+      </c>
+      <c r="D28">
+        <v>1.607250690710136</v>
+      </c>
+      <c r="E28">
+        <v>0.8384800273458959</v>
+      </c>
+      <c r="F28">
+        <v>1.008705932514348</v>
+      </c>
+      <c r="G28">
+        <v>1.095263355421848</v>
+      </c>
+      <c r="H28">
+        <v>1.13205162090992</v>
+      </c>
+      <c r="I28">
+        <v>0.8806685790860858</v>
+      </c>
+      <c r="J28">
+        <v>1.13205162090992</v>
+      </c>
+      <c r="K28">
+        <v>0.8806685790860858</v>
+      </c>
+      <c r="L28">
+        <v>1.095263355421848</v>
+      </c>
+      <c r="M28">
+        <v>1.113657488165884</v>
+      </c>
+      <c r="N28">
+        <v>1.113657488165884</v>
+      </c>
+      <c r="O28">
+        <v>1.021931667892555</v>
+      </c>
+      <c r="P28">
+        <v>1.035994518472618</v>
+      </c>
+      <c r="Q28">
+        <v>1.035994518472618</v>
+      </c>
+      <c r="R28">
+        <v>0.9971630336259849</v>
+      </c>
+      <c r="S28">
+        <v>0.9971630336259849</v>
+      </c>
+      <c r="T28">
+        <v>1.093736700998039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.998095891391079</v>
+      </c>
+      <c r="D29">
+        <v>1.383475245862678</v>
+      </c>
+      <c r="E29">
+        <v>0.8664029005117128</v>
+      </c>
+      <c r="F29">
+        <v>1.015040523715412</v>
+      </c>
+      <c r="G29">
+        <v>1.048859584794421</v>
+      </c>
+      <c r="H29">
+        <v>1.038629023155052</v>
+      </c>
+      <c r="I29">
+        <v>0.998095891391079</v>
+      </c>
+      <c r="J29">
+        <v>1.038629023155052</v>
+      </c>
+      <c r="K29">
+        <v>0.998095891391079</v>
+      </c>
+      <c r="L29">
+        <v>1.048859584794421</v>
+      </c>
+      <c r="M29">
+        <v>1.043744303974736</v>
+      </c>
+      <c r="N29">
+        <v>1.043744303974736</v>
+      </c>
+      <c r="O29">
+        <v>0.9846305028203951</v>
+      </c>
+      <c r="P29">
+        <v>1.02852816644685</v>
+      </c>
+      <c r="Q29">
+        <v>1.02852816644685</v>
+      </c>
+      <c r="R29">
+        <v>1.020920097682908</v>
+      </c>
+      <c r="S29">
+        <v>1.020920097682908</v>
+      </c>
+      <c r="T29">
+        <v>1.058417194905059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.230444264324221</v>
+      </c>
+      <c r="D30">
+        <v>0.9380291158066859</v>
+      </c>
+      <c r="E30">
+        <v>0.9224635808869195</v>
+      </c>
+      <c r="F30">
+        <v>1.027581608149867</v>
+      </c>
+      <c r="G30">
+        <v>0.9567793568178717</v>
+      </c>
+      <c r="H30">
+        <v>0.8530875382467955</v>
+      </c>
+      <c r="I30">
+        <v>1.230444264324221</v>
+      </c>
+      <c r="J30">
+        <v>0.8530875382467955</v>
+      </c>
+      <c r="K30">
+        <v>1.230444264324221</v>
+      </c>
+      <c r="L30">
+        <v>0.9567793568178717</v>
+      </c>
+      <c r="M30">
+        <v>0.9049334475323336</v>
+      </c>
+      <c r="N30">
+        <v>0.9049334475323336</v>
+      </c>
+      <c r="O30">
+        <v>0.9107768253171956</v>
+      </c>
+      <c r="P30">
+        <v>1.01343705312963</v>
+      </c>
+      <c r="Q30">
+        <v>1.01343705312963</v>
+      </c>
+      <c r="R30">
+        <v>1.067688855928278</v>
+      </c>
+      <c r="S30">
+        <v>1.067688855928278</v>
+      </c>
+      <c r="T30">
+        <v>0.9880642440387269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.323970943539576</v>
+      </c>
+      <c r="D31">
+        <v>0.8972833920126806</v>
+      </c>
+      <c r="E31">
+        <v>0.9134511245763901</v>
+      </c>
+      <c r="F31">
+        <v>1.023914190695089</v>
+      </c>
+      <c r="G31">
+        <v>0.9182630703548674</v>
+      </c>
+      <c r="H31">
+        <v>0.8686077623636755</v>
+      </c>
+      <c r="I31">
+        <v>1.323970943539576</v>
+      </c>
+      <c r="J31">
+        <v>0.8686077623636755</v>
+      </c>
+      <c r="K31">
+        <v>1.323970943539576</v>
+      </c>
+      <c r="L31">
+        <v>0.9182630703548674</v>
+      </c>
+      <c r="M31">
+        <v>0.8934354163592715</v>
+      </c>
+      <c r="N31">
+        <v>0.8934354163592715</v>
+      </c>
+      <c r="O31">
+        <v>0.900107319098311</v>
+      </c>
+      <c r="P31">
+        <v>1.036947258752706</v>
+      </c>
+      <c r="Q31">
+        <v>1.036947258752706</v>
+      </c>
+      <c r="R31">
+        <v>1.108703179949424</v>
+      </c>
+      <c r="S31">
+        <v>1.108703179949424</v>
+      </c>
+      <c r="T31">
+        <v>0.9909150805903799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.8017197602739731</v>
+      </c>
+      <c r="D32">
+        <v>1.808152796945205</v>
+      </c>
+      <c r="E32">
+        <v>0.8044317555890412</v>
+      </c>
+      <c r="F32">
+        <v>1.004260191506849</v>
+      </c>
+      <c r="G32">
+        <v>1.131361246849315</v>
+      </c>
+      <c r="H32">
+        <v>1.208304202323287</v>
+      </c>
+      <c r="I32">
+        <v>0.8017197602739731</v>
+      </c>
+      <c r="J32">
+        <v>1.208304202323287</v>
+      </c>
+      <c r="K32">
+        <v>0.8017197602739731</v>
+      </c>
+      <c r="L32">
+        <v>1.131361246849315</v>
+      </c>
+      <c r="M32">
+        <v>1.169832724586301</v>
+      </c>
+      <c r="N32">
+        <v>1.169832724586301</v>
+      </c>
+      <c r="O32">
+        <v>1.048032401587214</v>
+      </c>
+      <c r="P32">
+        <v>1.047128403148858</v>
+      </c>
+      <c r="Q32">
+        <v>1.047128403148858</v>
+      </c>
+      <c r="R32">
+        <v>0.9857762424301371</v>
+      </c>
+      <c r="S32">
+        <v>0.9857762424301371</v>
+      </c>
+      <c r="T32">
+        <v>1.126371658914612</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.8159869238421055</v>
+      </c>
+      <c r="D33">
+        <v>1.739638943468421</v>
+      </c>
+      <c r="E33">
+        <v>0.8413760448421054</v>
+      </c>
+      <c r="F33">
+        <v>0.9822274357894737</v>
+      </c>
+      <c r="G33">
+        <v>1.095994567894737</v>
+      </c>
+      <c r="H33">
+        <v>1.342166235863158</v>
+      </c>
+      <c r="I33">
+        <v>0.8159869238421055</v>
+      </c>
+      <c r="J33">
+        <v>1.342166235863158</v>
+      </c>
+      <c r="K33">
+        <v>0.8159869238421055</v>
+      </c>
+      <c r="L33">
+        <v>1.095994567894737</v>
+      </c>
+      <c r="M33">
+        <v>1.219080401878947</v>
+      </c>
+      <c r="N33">
+        <v>1.219080401878947</v>
+      </c>
+      <c r="O33">
+        <v>1.093178949533333</v>
+      </c>
+      <c r="P33">
+        <v>1.0847159092</v>
+      </c>
+      <c r="Q33">
+        <v>1.0847159092</v>
+      </c>
+      <c r="R33">
+        <v>1.017533662860526</v>
+      </c>
+      <c r="S33">
+        <v>1.017533662860526</v>
+      </c>
+      <c r="T33">
+        <v>1.13623169195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.341504682947369</v>
+      </c>
+      <c r="D34">
+        <v>0.08656499415263157</v>
+      </c>
+      <c r="E34">
+        <v>1.587143551578947</v>
+      </c>
+      <c r="F34">
+        <v>0.6632488847368421</v>
+      </c>
+      <c r="G34">
+        <v>0.4148450784210526</v>
+      </c>
+      <c r="H34">
+        <v>2.313446413578948</v>
+      </c>
+      <c r="I34">
+        <v>1.341504682947369</v>
+      </c>
+      <c r="J34">
+        <v>2.313446413578948</v>
+      </c>
+      <c r="K34">
+        <v>1.341504682947369</v>
+      </c>
+      <c r="L34">
+        <v>0.4148450784210526</v>
+      </c>
+      <c r="M34">
+        <v>1.364145746</v>
+      </c>
+      <c r="N34">
+        <v>1.364145746</v>
+      </c>
+      <c r="O34">
+        <v>1.438478347859649</v>
+      </c>
+      <c r="P34">
+        <v>1.356598724982456</v>
+      </c>
+      <c r="Q34">
+        <v>1.356598724982456</v>
+      </c>
+      <c r="R34">
+        <v>1.352825214473684</v>
+      </c>
+      <c r="S34">
+        <v>1.352825214473684</v>
+      </c>
+      <c r="T34">
+        <v>1.067792267569298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>2.334476105799165</v>
+      </c>
+      <c r="D35">
+        <v>0.5746713978977687</v>
+      </c>
+      <c r="E35">
+        <v>0.6580336027564961</v>
+      </c>
+      <c r="F35">
+        <v>1.080689559251478</v>
+      </c>
+      <c r="G35">
+        <v>0.6895192710635015</v>
+      </c>
+      <c r="H35">
+        <v>0.4384277514115949</v>
+      </c>
+      <c r="I35">
+        <v>2.334476105799165</v>
+      </c>
+      <c r="J35">
+        <v>0.4384277514115949</v>
+      </c>
+      <c r="K35">
+        <v>2.334476105799165</v>
+      </c>
+      <c r="L35">
+        <v>0.6895192710635015</v>
+      </c>
+      <c r="M35">
+        <v>0.5639735112375482</v>
+      </c>
+      <c r="N35">
+        <v>0.5639735112375482</v>
+      </c>
+      <c r="O35">
+        <v>0.5953268750771975</v>
+      </c>
+      <c r="P35">
+        <v>1.154141042758087</v>
+      </c>
+      <c r="Q35">
+        <v>1.154141042758087</v>
+      </c>
+      <c r="R35">
+        <v>1.449224808518357</v>
+      </c>
+      <c r="S35">
+        <v>1.449224808518357</v>
+      </c>
+      <c r="T35">
+        <v>0.9626362813633339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9996697959839972</v>
+      </c>
+      <c r="D36">
+        <v>1.003373870267766</v>
+      </c>
+      <c r="E36">
+        <v>1.000043553426621</v>
+      </c>
+      <c r="F36">
+        <v>0.9993769022108328</v>
+      </c>
+      <c r="G36">
+        <v>0.9992649464512965</v>
+      </c>
+      <c r="H36">
+        <v>1.003256554350219</v>
+      </c>
+      <c r="I36">
+        <v>0.9996697959839972</v>
+      </c>
+      <c r="J36">
+        <v>1.003256554350219</v>
+      </c>
+      <c r="K36">
+        <v>0.9996697959839972</v>
+      </c>
+      <c r="L36">
+        <v>0.9992649464512965</v>
+      </c>
+      <c r="M36">
+        <v>1.001260750400758</v>
+      </c>
+      <c r="N36">
+        <v>1.001260750400758</v>
+      </c>
+      <c r="O36">
+        <v>1.000855018076046</v>
+      </c>
+      <c r="P36">
+        <v>1.000730432261838</v>
+      </c>
+      <c r="Q36">
+        <v>1.000730432261838</v>
+      </c>
+      <c r="R36">
+        <v>1.000465273192378</v>
+      </c>
+      <c r="S36">
+        <v>1.000465273192378</v>
+      </c>
+      <c r="T36">
+        <v>1.000830937115122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.005411945947536</v>
+      </c>
+      <c r="D37">
+        <v>0.9930236120682219</v>
+      </c>
+      <c r="E37">
+        <v>0.9988912554550683</v>
+      </c>
+      <c r="F37">
+        <v>1.001133030494502</v>
+      </c>
+      <c r="G37">
+        <v>0.9998500368359728</v>
+      </c>
+      <c r="H37">
+        <v>0.9940840418781506</v>
+      </c>
+      <c r="I37">
+        <v>1.005411945947536</v>
+      </c>
+      <c r="J37">
+        <v>0.9940840418781506</v>
+      </c>
+      <c r="K37">
+        <v>1.005411945947536</v>
+      </c>
+      <c r="L37">
+        <v>0.9998500368359728</v>
+      </c>
+      <c r="M37">
+        <v>0.9969670393570618</v>
+      </c>
+      <c r="N37">
+        <v>0.9969670393570618</v>
+      </c>
+      <c r="O37">
+        <v>0.9976084447230639</v>
+      </c>
+      <c r="P37">
+        <v>0.9997820082205532</v>
+      </c>
+      <c r="Q37">
+        <v>0.9997820082205532</v>
+      </c>
+      <c r="R37">
+        <v>1.001189492652299</v>
+      </c>
+      <c r="S37">
+        <v>1.001189492652299</v>
+      </c>
+      <c r="T37">
+        <v>0.9987323204465751</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9926736271684976</v>
+      </c>
+      <c r="D38">
+        <v>1.024221681714205</v>
+      </c>
+      <c r="E38">
+        <v>0.9975754105985962</v>
+      </c>
+      <c r="F38">
+        <v>0.9979815448760134</v>
+      </c>
+      <c r="G38">
+        <v>1.001340476736445</v>
+      </c>
+      <c r="H38">
+        <v>1.013928862146226</v>
+      </c>
+      <c r="I38">
+        <v>0.9926736271684976</v>
+      </c>
+      <c r="J38">
+        <v>1.013928862146226</v>
+      </c>
+      <c r="K38">
+        <v>0.9926736271684976</v>
+      </c>
+      <c r="L38">
+        <v>1.001340476736445</v>
+      </c>
+      <c r="M38">
+        <v>1.007634669441335</v>
+      </c>
+      <c r="N38">
+        <v>1.007634669441335</v>
+      </c>
+      <c r="O38">
+        <v>1.004281583160422</v>
+      </c>
+      <c r="P38">
+        <v>1.002647655350389</v>
+      </c>
+      <c r="Q38">
+        <v>1.002647655350389</v>
+      </c>
+      <c r="R38">
+        <v>1.000154148304916</v>
+      </c>
+      <c r="S38">
+        <v>1.000154148304916</v>
+      </c>
+      <c r="T38">
+        <v>1.004620267206664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9658730703206357</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.087937433396838</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9963573936051758</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9914244851853512</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000641874249663</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.056475899523746</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9658730703206357</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.056475899523746</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9658730703206357</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000641874249663</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.028558886886705</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.028558886886705</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.017825055792862</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.007663614698015</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.007663614698015</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9972159786036703</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9972159786036703</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.016451692713568</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8564141077227182</v>
+      </c>
+      <c r="D40">
+        <v>0.8396309531039378</v>
+      </c>
+      <c r="E40">
+        <v>1.212410446773005</v>
+      </c>
+      <c r="F40">
+        <v>0.8838089093114947</v>
+      </c>
+      <c r="G40">
+        <v>0.8964301270167584</v>
+      </c>
+      <c r="H40">
+        <v>1.59971702615134</v>
+      </c>
+      <c r="I40">
+        <v>0.8564141077227182</v>
+      </c>
+      <c r="J40">
+        <v>1.59971702615134</v>
+      </c>
+      <c r="K40">
+        <v>0.8564141077227182</v>
+      </c>
+      <c r="L40">
+        <v>0.8964301270167584</v>
+      </c>
+      <c r="M40">
+        <v>1.248073576584049</v>
+      </c>
+      <c r="N40">
+        <v>1.248073576584049</v>
+      </c>
+      <c r="O40">
+        <v>1.236185866647035</v>
+      </c>
+      <c r="P40">
+        <v>1.117520420296939</v>
+      </c>
+      <c r="Q40">
+        <v>1.117520420296939</v>
+      </c>
+      <c r="R40">
+        <v>1.052243842153384</v>
+      </c>
+      <c r="S40">
+        <v>1.052243842153384</v>
+      </c>
+      <c r="T40">
+        <v>1.048068595013209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.041685380174579</v>
+      </c>
+      <c r="D41">
+        <v>0.7864094476492027</v>
+      </c>
+      <c r="E41">
+        <v>1.121379645399665</v>
+      </c>
+      <c r="F41">
+        <v>0.9421485888862894</v>
+      </c>
+      <c r="G41">
+        <v>0.9017636950111622</v>
+      </c>
+      <c r="H41">
+        <v>1.196642026499355</v>
+      </c>
+      <c r="I41">
+        <v>1.041685380174579</v>
+      </c>
+      <c r="J41">
+        <v>1.196642026499355</v>
+      </c>
+      <c r="K41">
+        <v>1.041685380174579</v>
+      </c>
+      <c r="L41">
+        <v>0.9017636950111622</v>
+      </c>
+      <c r="M41">
+        <v>1.049202860755259</v>
+      </c>
+      <c r="N41">
+        <v>1.049202860755259</v>
+      </c>
+      <c r="O41">
+        <v>1.073261788970061</v>
+      </c>
+      <c r="P41">
+        <v>1.046697033895032</v>
+      </c>
+      <c r="Q41">
+        <v>1.046697033895032</v>
+      </c>
+      <c r="R41">
+        <v>1.045444120464919</v>
+      </c>
+      <c r="S41">
+        <v>1.045444120464919</v>
+      </c>
+      <c r="T41">
+        <v>0.9983381306033756</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.7597970402277199</v>
+      </c>
+      <c r="D42">
+        <v>1.066316191372682</v>
+      </c>
+      <c r="E42">
+        <v>1.087316059998044</v>
+      </c>
+      <c r="F42">
+        <v>0.9502936736696838</v>
+      </c>
+      <c r="G42">
+        <v>1.027322435535899</v>
+      </c>
+      <c r="H42">
+        <v>1.385293956880357</v>
+      </c>
+      <c r="I42">
+        <v>0.7597970402277199</v>
+      </c>
+      <c r="J42">
+        <v>1.385293956880357</v>
+      </c>
+      <c r="K42">
+        <v>0.7597970402277199</v>
+      </c>
+      <c r="L42">
+        <v>1.027322435535899</v>
+      </c>
+      <c r="M42">
+        <v>1.206308196208128</v>
+      </c>
+      <c r="N42">
+        <v>1.206308196208128</v>
+      </c>
+      <c r="O42">
+        <v>1.166644150804766</v>
+      </c>
+      <c r="P42">
+        <v>1.057471144214658</v>
+      </c>
+      <c r="Q42">
+        <v>1.057471144214658</v>
+      </c>
+      <c r="R42">
+        <v>0.9830526182179238</v>
+      </c>
+      <c r="S42">
+        <v>0.9830526182179238</v>
+      </c>
+      <c r="T42">
+        <v>1.046056559614064</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW15.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9930932749612043</v>
+        <v>1.007450599288623</v>
       </c>
       <c r="D3">
-        <v>1.00983092474528</v>
+        <v>0.9972958296027782</v>
       </c>
       <c r="E3">
-        <v>1.005089360049603</v>
+        <v>0.9981854298084961</v>
       </c>
       <c r="F3">
-        <v>0.9930932749612043</v>
+        <v>1.000416978988016</v>
       </c>
       <c r="G3">
-        <v>1.034154526425042</v>
+        <v>0.9982523991780456</v>
       </c>
       <c r="H3">
-        <v>0.9913674754642453</v>
+        <v>0.9969261633546466</v>
       </c>
       <c r="I3">
-        <v>1.000023431855215</v>
+        <v>1.007450599288623</v>
       </c>
       <c r="J3">
-        <v>1.00983092474528</v>
+        <v>0.9969261633546466</v>
       </c>
       <c r="K3">
-        <v>0.9930932749612043</v>
+        <v>1.007450599288623</v>
       </c>
       <c r="L3">
-        <v>1.005089360049603</v>
+        <v>0.9982523991780456</v>
       </c>
       <c r="M3">
-        <v>1.007460142397441</v>
+        <v>0.9975892812663461</v>
       </c>
       <c r="N3">
-        <v>1.007460142397441</v>
+        <v>0.9975892812663461</v>
       </c>
       <c r="O3">
-        <v>1.002095920086376</v>
+        <v>0.9977879974470628</v>
       </c>
       <c r="P3">
-        <v>1.002671186585362</v>
+        <v>1.000876387273772</v>
       </c>
       <c r="Q3">
-        <v>1.002671186585362</v>
+        <v>1.000876387273772</v>
       </c>
       <c r="R3">
-        <v>1.000276708679323</v>
+        <v>1.002519940277484</v>
       </c>
       <c r="S3">
-        <v>1.000276708679323</v>
+        <v>1.002519940277484</v>
       </c>
       <c r="T3">
-        <v>1.005593165583432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9997545667034342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9860689872618645</v>
+        <v>0.8564141077227182</v>
       </c>
       <c r="D4">
-        <v>1.016575581491411</v>
+        <v>0.8396309531039378</v>
       </c>
       <c r="E4">
-        <v>1.010291869281994</v>
+        <v>1.212410446773005</v>
       </c>
       <c r="F4">
-        <v>0.9860689872618645</v>
+        <v>0.8838089093114947</v>
       </c>
       <c r="G4">
-        <v>1.064538320365556</v>
+        <v>0.8964301270167584</v>
       </c>
       <c r="H4">
-        <v>0.983645131545491</v>
+        <v>1.59971702615134</v>
       </c>
       <c r="I4">
-        <v>1.000350930346756</v>
+        <v>0.8564141077227182</v>
       </c>
       <c r="J4">
-        <v>1.016575581491411</v>
+        <v>1.59971702615134</v>
       </c>
       <c r="K4">
-        <v>0.9860689872618645</v>
+        <v>0.8564141077227182</v>
       </c>
       <c r="L4">
-        <v>1.010291869281994</v>
+        <v>0.8964301270167584</v>
       </c>
       <c r="M4">
-        <v>1.013433725386702</v>
+        <v>1.248073576584049</v>
       </c>
       <c r="N4">
-        <v>1.013433725386702</v>
+        <v>1.248073576584049</v>
       </c>
       <c r="O4">
-        <v>1.003504194106299</v>
+        <v>1.236185866647035</v>
       </c>
       <c r="P4">
-        <v>1.004312146011756</v>
+        <v>1.117520420296939</v>
       </c>
       <c r="Q4">
-        <v>1.004312146011756</v>
+        <v>1.117520420296939</v>
       </c>
       <c r="R4">
-        <v>0.9997513563242835</v>
+        <v>1.052243842153384</v>
       </c>
       <c r="S4">
-        <v>0.9997513563242835</v>
+        <v>1.052243842153384</v>
       </c>
       <c r="T4">
-        <v>1.010245136715512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.048068595013209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.977667376312905</v>
+        <v>1.274817591157063</v>
       </c>
       <c r="D5">
-        <v>1.033576877190324</v>
+        <v>0.9278723113507885</v>
       </c>
       <c r="E5">
-        <v>1.017927452273455</v>
+        <v>0.9165582740561974</v>
       </c>
       <c r="F5">
-        <v>0.977667376312905</v>
+        <v>1.024612528811239</v>
       </c>
       <c r="G5">
-        <v>1.123478137266487</v>
+        <v>0.940516262139769</v>
       </c>
       <c r="H5">
-        <v>0.9681432612691246</v>
+        <v>0.861076431620533</v>
       </c>
       <c r="I5">
-        <v>1.00005175492749</v>
+        <v>1.274817591157063</v>
       </c>
       <c r="J5">
-        <v>1.033576877190324</v>
+        <v>0.861076431620533</v>
       </c>
       <c r="K5">
-        <v>0.977667376312905</v>
+        <v>1.274817591157063</v>
       </c>
       <c r="L5">
-        <v>1.017927452273455</v>
+        <v>0.940516262139769</v>
       </c>
       <c r="M5">
-        <v>1.025752164731889</v>
+        <v>0.900796346880151</v>
       </c>
       <c r="N5">
-        <v>1.025752164731889</v>
+        <v>0.900796346880151</v>
       </c>
       <c r="O5">
-        <v>1.006549196910968</v>
+        <v>0.9060503226054998</v>
       </c>
       <c r="P5">
-        <v>1.009723901925561</v>
+        <v>1.025470094972455</v>
       </c>
       <c r="Q5">
-        <v>1.009723901925561</v>
+        <v>1.025470094972455</v>
       </c>
       <c r="R5">
-        <v>1.001709770522397</v>
+        <v>1.087806969018607</v>
       </c>
       <c r="S5">
-        <v>1.001709770522397</v>
+        <v>1.087806969018607</v>
       </c>
       <c r="T5">
-        <v>1.020140809873298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9909088998559318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.975536271459393</v>
+        <v>2.334476105799165</v>
       </c>
       <c r="D6">
-        <v>1.052806252661444</v>
+        <v>0.5746713978977687</v>
       </c>
       <c r="E6">
-        <v>1.026264705185671</v>
+        <v>0.6580336027564961</v>
       </c>
       <c r="F6">
-        <v>0.975536271459393</v>
+        <v>1.080689559251478</v>
       </c>
       <c r="G6">
-        <v>1.184799831835607</v>
+        <v>0.6895192710635015</v>
       </c>
       <c r="H6">
-        <v>0.9489557639469922</v>
+        <v>0.4384277514115949</v>
       </c>
       <c r="I6">
-        <v>0.9985524439965644</v>
+        <v>2.334476105799165</v>
       </c>
       <c r="J6">
-        <v>1.052806252661444</v>
+        <v>0.4384277514115949</v>
       </c>
       <c r="K6">
-        <v>0.975536271459393</v>
+        <v>2.334476105799165</v>
       </c>
       <c r="L6">
-        <v>1.026264705185671</v>
+        <v>0.6895192710635015</v>
       </c>
       <c r="M6">
-        <v>1.039535478923558</v>
+        <v>0.5639735112375482</v>
       </c>
       <c r="N6">
-        <v>1.039535478923558</v>
+        <v>0.5639735112375482</v>
       </c>
       <c r="O6">
-        <v>1.009342240598036</v>
+        <v>0.5953268750771975</v>
       </c>
       <c r="P6">
-        <v>1.018202409768836</v>
+        <v>1.154141042758087</v>
       </c>
       <c r="Q6">
-        <v>1.018202409768836</v>
+        <v>1.154141042758087</v>
       </c>
       <c r="R6">
-        <v>1.007535875191475</v>
+        <v>1.449224808518357</v>
       </c>
       <c r="S6">
-        <v>1.007535875191475</v>
+        <v>1.449224808518357</v>
       </c>
       <c r="T6">
-        <v>1.031152544847612</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9626362813633339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.002852352437795</v>
+        <v>0.9918725954980357</v>
       </c>
       <c r="D7">
-        <v>0.9987398921251857</v>
+        <v>1.030196654376188</v>
       </c>
       <c r="E7">
-        <v>0.9993370703890913</v>
+        <v>0.9945825050419091</v>
       </c>
       <c r="F7">
-        <v>1.002852352437795</v>
+        <v>0.9989896867900607</v>
       </c>
       <c r="G7">
-        <v>0.9991304272406466</v>
+        <v>1.003332075370879</v>
       </c>
       <c r="H7">
-        <v>0.9992532159441092</v>
+        <v>1.01215044688674</v>
       </c>
       <c r="I7">
-        <v>1.000181553225787</v>
+        <v>0.9918725954980357</v>
       </c>
       <c r="J7">
-        <v>0.9987398921251857</v>
+        <v>1.01215044688674</v>
       </c>
       <c r="K7">
-        <v>1.002852352437795</v>
+        <v>0.9918725954980357</v>
       </c>
       <c r="L7">
-        <v>0.9993370703890913</v>
+        <v>1.003332075370879</v>
       </c>
       <c r="M7">
-        <v>0.9990384812571385</v>
+        <v>1.007741261128809</v>
       </c>
       <c r="N7">
-        <v>0.9990384812571385</v>
+        <v>1.007741261128809</v>
       </c>
       <c r="O7">
-        <v>0.9991100594861287</v>
+        <v>1.003355009099843</v>
       </c>
       <c r="P7">
-        <v>1.000309771650691</v>
+        <v>1.002451705918552</v>
       </c>
       <c r="Q7">
-        <v>1.000309771650691</v>
+        <v>1.002451705918552</v>
       </c>
       <c r="R7">
-        <v>1.000945416847467</v>
+        <v>0.9998069283134225</v>
       </c>
       <c r="S7">
-        <v>1.000945416847467</v>
+        <v>0.9998069283134225</v>
       </c>
       <c r="T7">
-        <v>0.999915751893769</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.005187327327302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.007450599288623</v>
+        <v>1.005411945947536</v>
       </c>
       <c r="D8">
-        <v>0.9969261633546469</v>
+        <v>0.9930236120682219</v>
       </c>
       <c r="E8">
-        <v>0.9982523991780461</v>
+        <v>0.9988912554550683</v>
       </c>
       <c r="F8">
-        <v>1.007450599288623</v>
+        <v>1.001133030494502</v>
       </c>
       <c r="G8">
-        <v>0.9972958296027787</v>
+        <v>0.9998500368359728</v>
       </c>
       <c r="H8">
-        <v>0.9981854298084964</v>
+        <v>0.9940840418781506</v>
       </c>
       <c r="I8">
-        <v>1.000416978988016</v>
+        <v>1.005411945947536</v>
       </c>
       <c r="J8">
-        <v>0.9969261633546469</v>
+        <v>0.9940840418781506</v>
       </c>
       <c r="K8">
-        <v>1.007450599288623</v>
+        <v>1.005411945947536</v>
       </c>
       <c r="L8">
-        <v>0.9982523991780461</v>
+        <v>0.9998500368359728</v>
       </c>
       <c r="M8">
-        <v>0.9975892812663465</v>
+        <v>0.9969670393570618</v>
       </c>
       <c r="N8">
-        <v>0.9975892812663465</v>
+        <v>0.9969670393570618</v>
       </c>
       <c r="O8">
-        <v>0.997787997447063</v>
+        <v>0.9976084447230639</v>
       </c>
       <c r="P8">
-        <v>1.000876387273772</v>
+        <v>0.9997820082205532</v>
       </c>
       <c r="Q8">
-        <v>1.000876387273772</v>
+        <v>0.9997820082205532</v>
       </c>
       <c r="R8">
-        <v>1.002519940277485</v>
+        <v>1.001189492652299</v>
       </c>
       <c r="S8">
-        <v>1.002519940277485</v>
+        <v>1.001189492652299</v>
       </c>
       <c r="T8">
-        <v>0.9997545667034343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9987323204465751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.010799121616522</v>
+        <v>0.9860689872618645</v>
       </c>
       <c r="D9">
-        <v>0.9950871597795199</v>
+        <v>1.064538320365556</v>
       </c>
       <c r="E9">
-        <v>0.9974519089473478</v>
+        <v>0.983645131545491</v>
       </c>
       <c r="F9">
-        <v>1.010799121616522</v>
+        <v>1.000350930346756</v>
       </c>
       <c r="G9">
-        <v>0.9964266218317034</v>
+        <v>1.010291869281994</v>
       </c>
       <c r="H9">
-        <v>0.997126456952956</v>
+        <v>1.016575581491411</v>
       </c>
       <c r="I9">
-        <v>1.000798019641689</v>
+        <v>0.9860689872618645</v>
       </c>
       <c r="J9">
-        <v>0.9950871597795199</v>
+        <v>1.016575581491411</v>
       </c>
       <c r="K9">
-        <v>1.010799121616522</v>
+        <v>0.9860689872618645</v>
       </c>
       <c r="L9">
-        <v>0.9974519089473478</v>
+        <v>1.010291869281994</v>
       </c>
       <c r="M9">
-        <v>0.9962695343634338</v>
+        <v>1.013433725386702</v>
       </c>
       <c r="N9">
-        <v>0.9962695343634338</v>
+        <v>1.013433725386702</v>
       </c>
       <c r="O9">
-        <v>0.9965551752266079</v>
+        <v>1.003504194106299</v>
       </c>
       <c r="P9">
-        <v>1.001112730114463</v>
+        <v>1.004312146011756</v>
       </c>
       <c r="Q9">
-        <v>1.001112730114463</v>
+        <v>1.004312146011756</v>
       </c>
       <c r="R9">
-        <v>1.003534327989978</v>
+        <v>0.9997513563242835</v>
       </c>
       <c r="S9">
-        <v>1.003534327989978</v>
+        <v>0.9997513563242835</v>
       </c>
       <c r="T9">
-        <v>0.999614881461623</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.010245136715512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.02254505908114</v>
+        <v>2.381226572715396</v>
       </c>
       <c r="D10">
-        <v>0.989986780488885</v>
+        <v>0.5598625024751245</v>
       </c>
       <c r="E10">
-        <v>0.9948647446052087</v>
+        <v>0.6504061312607513</v>
       </c>
       <c r="F10">
-        <v>1.02254505908114</v>
+        <v>1.080017393628173</v>
       </c>
       <c r="G10">
-        <v>0.9924349795385623</v>
+        <v>0.671969163948091</v>
       </c>
       <c r="H10">
-        <v>0.994076275373212</v>
+        <v>0.4433530439418549</v>
       </c>
       <c r="I10">
-        <v>1.00155046312045</v>
+        <v>2.381226572715396</v>
       </c>
       <c r="J10">
-        <v>0.989986780488885</v>
+        <v>0.4433530439418549</v>
       </c>
       <c r="K10">
-        <v>1.02254505908114</v>
+        <v>2.381226572715396</v>
       </c>
       <c r="L10">
-        <v>0.9948647446052087</v>
+        <v>0.671969163948091</v>
       </c>
       <c r="M10">
-        <v>0.9924257625470468</v>
+        <v>0.557661103944973</v>
       </c>
       <c r="N10">
-        <v>0.9924257625470468</v>
+        <v>0.557661103944973</v>
       </c>
       <c r="O10">
-        <v>0.9929759334891018</v>
+        <v>0.5885761130502325</v>
       </c>
       <c r="P10">
-        <v>1.002465528058411</v>
+        <v>1.165516260201781</v>
       </c>
       <c r="Q10">
-        <v>1.002465528058411</v>
+        <v>1.165516260201781</v>
       </c>
       <c r="R10">
-        <v>1.007485410814094</v>
+        <v>1.469443838330185</v>
       </c>
       <c r="S10">
-        <v>1.007485410814094</v>
+        <v>1.469443838330185</v>
       </c>
       <c r="T10">
-        <v>0.9992430503679098</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9644724679948985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.039458655048911</v>
+        <v>0.9137549859073095</v>
       </c>
       <c r="D11">
-        <v>0.9820922191087962</v>
+        <v>0.6430609488091638</v>
       </c>
       <c r="E11">
-        <v>0.9913675950585404</v>
+        <v>1.311502346073643</v>
       </c>
       <c r="F11">
-        <v>1.039458655048911</v>
+        <v>0.83790357023392</v>
       </c>
       <c r="G11">
-        <v>0.9865472149102061</v>
+        <v>0.8068814652552126</v>
       </c>
       <c r="H11">
-        <v>0.9893229030834395</v>
+        <v>1.746280914849011</v>
       </c>
       <c r="I11">
-        <v>1.00297211158956</v>
+        <v>0.9137549859073095</v>
       </c>
       <c r="J11">
-        <v>0.9820922191087962</v>
+        <v>1.746280914849011</v>
       </c>
       <c r="K11">
-        <v>1.039458655048911</v>
+        <v>0.9137549859073095</v>
       </c>
       <c r="L11">
-        <v>0.9913675950585404</v>
+        <v>0.8068814652552126</v>
       </c>
       <c r="M11">
-        <v>0.9867299070836684</v>
+        <v>1.276581190052112</v>
       </c>
       <c r="N11">
-        <v>0.9867299070836684</v>
+        <v>1.276581190052112</v>
       </c>
       <c r="O11">
-        <v>0.9875942390835921</v>
+        <v>1.288221575392622</v>
       </c>
       <c r="P11">
-        <v>1.004306156405416</v>
+        <v>1.155639122003844</v>
       </c>
       <c r="Q11">
-        <v>1.004306156405416</v>
+        <v>1.155639122003844</v>
       </c>
       <c r="R11">
-        <v>1.01309428106629</v>
+        <v>1.095168087979711</v>
       </c>
       <c r="S11">
-        <v>1.01309428106629</v>
+        <v>1.095168087979711</v>
       </c>
       <c r="T11">
-        <v>0.9986267831332422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.043230705188043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7997830995241437</v>
+        <v>1.402953735938945</v>
       </c>
       <c r="D12">
-        <v>0.7496650844597269</v>
+        <v>0.84474377680368</v>
       </c>
       <c r="E12">
-        <v>1.137698033442856</v>
+        <v>0.908816765320001</v>
       </c>
       <c r="F12">
-        <v>0.7997830995241437</v>
+        <v>1.021504711189474</v>
       </c>
       <c r="G12">
-        <v>0.9597020113045062</v>
+        <v>0.8913210416105258</v>
       </c>
       <c r="H12">
-        <v>1.008178661707156</v>
+        <v>0.8608703723029469</v>
       </c>
       <c r="I12">
-        <v>1.044120691818265</v>
+        <v>1.402953735938945</v>
       </c>
       <c r="J12">
-        <v>0.7496650844597269</v>
+        <v>0.8608703723029469</v>
       </c>
       <c r="K12">
-        <v>0.7997830995241437</v>
+        <v>1.402953735938945</v>
       </c>
       <c r="L12">
-        <v>1.137698033442856</v>
+        <v>0.8913210416105258</v>
       </c>
       <c r="M12">
-        <v>0.9436815589512915</v>
+        <v>0.8760957069567363</v>
       </c>
       <c r="N12">
-        <v>0.9436815589512915</v>
+        <v>0.8760957069567363</v>
       </c>
       <c r="O12">
-        <v>0.9651805932032463</v>
+        <v>0.8870027264111578</v>
       </c>
       <c r="P12">
-        <v>0.8957154058089088</v>
+        <v>1.051715049950806</v>
       </c>
       <c r="Q12">
-        <v>0.8957154058089088</v>
+        <v>1.051715049950806</v>
       </c>
       <c r="R12">
-        <v>0.8717323292377176</v>
+        <v>1.139524721447841</v>
       </c>
       <c r="S12">
-        <v>0.8717323292377176</v>
+        <v>1.139524721447841</v>
       </c>
       <c r="T12">
-        <v>0.9498579303761091</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9883684005275954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.212438411798979</v>
+        <v>0.9611957775671245</v>
       </c>
       <c r="D13">
-        <v>1.268981835564233</v>
+        <v>0.9868929358215613</v>
       </c>
       <c r="E13">
-        <v>0.8302766116245317</v>
+        <v>1.048175281462427</v>
       </c>
       <c r="F13">
-        <v>1.212438411798979</v>
+        <v>0.9709772002885996</v>
       </c>
       <c r="G13">
-        <v>1.142429010762398</v>
+        <v>0.9737030085708783</v>
       </c>
       <c r="H13">
-        <v>0.9921217950800018</v>
+        <v>1.154688772576062</v>
       </c>
       <c r="I13">
-        <v>0.9406486785693521</v>
+        <v>0.9611957775671245</v>
       </c>
       <c r="J13">
-        <v>1.268981835564233</v>
+        <v>1.154688772576062</v>
       </c>
       <c r="K13">
-        <v>1.212438411798979</v>
+        <v>0.9611957775671245</v>
       </c>
       <c r="L13">
-        <v>0.8302766116245317</v>
+        <v>0.9737030085708783</v>
       </c>
       <c r="M13">
-        <v>1.049629223594382</v>
+        <v>1.06419589057347</v>
       </c>
       <c r="N13">
-        <v>1.049629223594382</v>
+        <v>1.06419589057347</v>
       </c>
       <c r="O13">
-        <v>1.030460080756256</v>
+        <v>1.058855687536456</v>
       </c>
       <c r="P13">
-        <v>1.103898952995915</v>
+        <v>1.029862519571355</v>
       </c>
       <c r="Q13">
-        <v>1.103898952995915</v>
+        <v>1.029862519571355</v>
       </c>
       <c r="R13">
-        <v>1.131033817696681</v>
+        <v>1.012695834070297</v>
       </c>
       <c r="S13">
-        <v>1.131033817696681</v>
+        <v>1.012695834070297</v>
       </c>
       <c r="T13">
-        <v>1.064482723899916</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.015938829381109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.5393055635557688</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="D14">
-        <v>0.01541286061306674</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="E14">
-        <v>1.636972449125893</v>
+        <v>0.3913456500000007</v>
       </c>
       <c r="F14">
-        <v>0.5393055635557688</v>
+        <v>1.134</v>
       </c>
       <c r="G14">
-        <v>3.239353708501928</v>
+        <v>0.4216041200000005</v>
       </c>
       <c r="H14">
-        <v>0.1299080222276128</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="I14">
-        <v>1.320394224057432</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="J14">
-        <v>0.01541286061306674</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="K14">
-        <v>0.5393055635557688</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="L14">
-        <v>1.636972449125893</v>
+        <v>0.4216041200000005</v>
       </c>
       <c r="M14">
-        <v>0.8261926548694798</v>
+        <v>0.2224524380000003</v>
       </c>
       <c r="N14">
-        <v>0.8261926548694798</v>
+        <v>0.2224524380000003</v>
       </c>
       <c r="O14">
-        <v>0.5940977773221908</v>
+        <v>0.2787501753333337</v>
       </c>
       <c r="P14">
-        <v>0.7305636244315762</v>
+        <v>1.295922358666668</v>
       </c>
       <c r="Q14">
-        <v>0.7305636244315762</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R14">
-        <v>0.6827491092126243</v>
+        <v>1.832657319000001</v>
       </c>
       <c r="S14">
-        <v>0.6827491092126243</v>
+        <v>1.832657319000001</v>
       </c>
       <c r="T14">
-        <v>1.146891138013617</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9378199343333339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.409578004869539</v>
+        <v>3.4428622</v>
       </c>
       <c r="D15">
-        <v>0.2282703272202106</v>
+        <v>0.21380688</v>
       </c>
       <c r="E15">
-        <v>1.131783605331437</v>
+        <v>0.39134565</v>
       </c>
       <c r="F15">
-        <v>1.409578004869539</v>
+        <v>1.134</v>
       </c>
       <c r="G15">
-        <v>0.6710635157005969</v>
+        <v>0.42160412</v>
       </c>
       <c r="H15">
-        <v>0.6777199424130483</v>
+        <v>0.023300756</v>
       </c>
       <c r="I15">
-        <v>1.216750179240604</v>
+        <v>3.4428622</v>
       </c>
       <c r="J15">
-        <v>0.2282703272202106</v>
+        <v>0.023300756</v>
       </c>
       <c r="K15">
-        <v>1.409578004869539</v>
+        <v>3.4428622</v>
       </c>
       <c r="L15">
-        <v>1.131783605331437</v>
+        <v>0.42160412</v>
       </c>
       <c r="M15">
-        <v>0.6800269662758236</v>
+        <v>0.222452438</v>
       </c>
       <c r="N15">
-        <v>0.6800269662758236</v>
+        <v>0.222452438</v>
       </c>
       <c r="O15">
-        <v>0.6792579583215651</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P15">
-        <v>0.9232106458070621</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q15">
-        <v>0.9232106458070621</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R15">
-        <v>1.044802485572681</v>
+        <v>1.832657319</v>
       </c>
       <c r="S15">
-        <v>1.044802485572681</v>
+        <v>1.832657319</v>
       </c>
       <c r="T15">
-        <v>0.8891942624625725</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9378199343333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9996697959839979</v>
+        <v>0.023300756</v>
       </c>
       <c r="D16">
-        <v>1.003256554350219</v>
+        <v>0.0017993233</v>
       </c>
       <c r="E16">
-        <v>0.999264946451297</v>
+        <v>2.4148578</v>
       </c>
       <c r="F16">
-        <v>0.9996697959839979</v>
+        <v>0.10214557</v>
       </c>
       <c r="G16">
-        <v>1.003373870267765</v>
+        <v>0.14230601</v>
       </c>
       <c r="H16">
-        <v>1.000043553426621</v>
+        <v>6.8875632</v>
       </c>
       <c r="I16">
-        <v>0.9993769022108328</v>
+        <v>0.023300756</v>
       </c>
       <c r="J16">
-        <v>1.003256554350219</v>
+        <v>6.8875632</v>
       </c>
       <c r="K16">
-        <v>0.9996697959839979</v>
+        <v>0.023300756</v>
       </c>
       <c r="L16">
-        <v>0.999264946451297</v>
+        <v>0.14230601</v>
       </c>
       <c r="M16">
-        <v>1.001260750400758</v>
+        <v>3.514934605</v>
       </c>
       <c r="N16">
-        <v>1.001260750400758</v>
+        <v>3.514934605</v>
       </c>
       <c r="O16">
-        <v>1.000855018076046</v>
+        <v>3.148242336666667</v>
       </c>
       <c r="P16">
-        <v>1.000730432261838</v>
+        <v>2.351056655333334</v>
       </c>
       <c r="Q16">
-        <v>1.000730432261838</v>
+        <v>2.351056655333334</v>
       </c>
       <c r="R16">
-        <v>1.000465273192378</v>
+        <v>1.7691176805</v>
       </c>
       <c r="S16">
-        <v>1.000465273192378</v>
+        <v>1.7691176805</v>
       </c>
       <c r="T16">
-        <v>1.000830937115122</v>
+        <v>1.59532877655</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.005411945947536</v>
+        <v>0.38932877</v>
       </c>
       <c r="D17">
-        <v>0.99408404187815</v>
+        <v>0.7764006599999999</v>
       </c>
       <c r="E17">
-        <v>0.9998500368359728</v>
+        <v>0.8848152900000001</v>
       </c>
       <c r="F17">
-        <v>1.005411945947536</v>
+        <v>1.1829396</v>
       </c>
       <c r="G17">
-        <v>0.9930236120682217</v>
+        <v>1.6230797</v>
       </c>
       <c r="H17">
-        <v>0.998891255455068</v>
+        <v>0.4216482</v>
       </c>
       <c r="I17">
-        <v>1.001133030494501</v>
+        <v>0.38932877</v>
       </c>
       <c r="J17">
-        <v>0.99408404187815</v>
+        <v>0.4216482</v>
       </c>
       <c r="K17">
-        <v>1.005411945947536</v>
+        <v>0.38932877</v>
       </c>
       <c r="L17">
-        <v>0.9998500368359728</v>
+        <v>1.6230797</v>
       </c>
       <c r="M17">
-        <v>0.9969670393570614</v>
+        <v>1.02236395</v>
       </c>
       <c r="N17">
-        <v>0.9969670393570614</v>
+        <v>1.02236395</v>
       </c>
       <c r="O17">
-        <v>0.9976084447230636</v>
+        <v>0.9765143966666666</v>
       </c>
       <c r="P17">
-        <v>0.999782008220553</v>
+        <v>0.8113522233333333</v>
       </c>
       <c r="Q17">
-        <v>0.999782008220553</v>
+        <v>0.8113522233333333</v>
       </c>
       <c r="R17">
-        <v>1.001189492652299</v>
+        <v>0.70584636</v>
       </c>
       <c r="S17">
-        <v>1.001189492652299</v>
+        <v>0.70584636</v>
       </c>
       <c r="T17">
-        <v>0.998732320446575</v>
+        <v>0.8797020366666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9926736271684973</v>
+        <v>0.8017197602739731</v>
       </c>
       <c r="D18">
-        <v>1.013928862146225</v>
+        <v>1.808152796945205</v>
       </c>
       <c r="E18">
-        <v>1.001340476736445</v>
+        <v>0.8044317555890412</v>
       </c>
       <c r="F18">
-        <v>0.9926736271684973</v>
+        <v>1.004260191506849</v>
       </c>
       <c r="G18">
-        <v>1.024221681714204</v>
+        <v>1.131361246849315</v>
       </c>
       <c r="H18">
-        <v>0.9975754105985962</v>
+        <v>1.208304202323287</v>
       </c>
       <c r="I18">
-        <v>0.9979815448760131</v>
+        <v>0.8017197602739731</v>
       </c>
       <c r="J18">
-        <v>1.013928862146225</v>
+        <v>1.208304202323287</v>
       </c>
       <c r="K18">
-        <v>0.9926736271684973</v>
+        <v>0.8017197602739731</v>
       </c>
       <c r="L18">
-        <v>1.001340476736445</v>
+        <v>1.131361246849315</v>
       </c>
       <c r="M18">
-        <v>1.007634669441335</v>
+        <v>1.169832724586301</v>
       </c>
       <c r="N18">
-        <v>1.007634669441335</v>
+        <v>1.169832724586301</v>
       </c>
       <c r="O18">
-        <v>1.004281583160422</v>
+        <v>1.048032401587214</v>
       </c>
       <c r="P18">
-        <v>1.002647655350389</v>
+        <v>1.047128403148858</v>
       </c>
       <c r="Q18">
-        <v>1.002647655350389</v>
+        <v>1.047128403148858</v>
       </c>
       <c r="R18">
-        <v>1.000154148304916</v>
+        <v>0.9857762424301371</v>
       </c>
       <c r="S18">
-        <v>1.000154148304916</v>
+        <v>0.9857762424301371</v>
       </c>
       <c r="T18">
-        <v>1.004620267206664</v>
+        <v>1.126371658914612</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9658730703206357</v>
+        <v>0.8159869238421055</v>
       </c>
       <c r="D19">
-        <v>1.056475899523746</v>
+        <v>1.739638943468421</v>
       </c>
       <c r="E19">
-        <v>1.000641874249663</v>
+        <v>0.8413760448421054</v>
       </c>
       <c r="F19">
-        <v>0.9658730703206357</v>
+        <v>0.9822274357894737</v>
       </c>
       <c r="G19">
-        <v>1.087937433396838</v>
+        <v>1.095994567894737</v>
       </c>
       <c r="H19">
-        <v>0.9963573936051758</v>
+        <v>1.342166235863158</v>
       </c>
       <c r="I19">
-        <v>0.9914244851853512</v>
+        <v>0.8159869238421055</v>
       </c>
       <c r="J19">
-        <v>1.056475899523746</v>
+        <v>1.342166235863158</v>
       </c>
       <c r="K19">
-        <v>0.9658730703206357</v>
+        <v>0.8159869238421055</v>
       </c>
       <c r="L19">
-        <v>1.000641874249663</v>
+        <v>1.095994567894737</v>
       </c>
       <c r="M19">
-        <v>1.028558886886705</v>
+        <v>1.219080401878947</v>
       </c>
       <c r="N19">
-        <v>1.028558886886705</v>
+        <v>1.219080401878947</v>
       </c>
       <c r="O19">
-        <v>1.017825055792862</v>
+        <v>1.093178949533333</v>
       </c>
       <c r="P19">
-        <v>1.007663614698015</v>
+        <v>1.0847159092</v>
       </c>
       <c r="Q19">
-        <v>1.007663614698015</v>
+        <v>1.0847159092</v>
       </c>
       <c r="R19">
-        <v>0.9972159786036703</v>
+        <v>1.017533662860526</v>
       </c>
       <c r="S19">
-        <v>0.9972159786036703</v>
+        <v>1.017533662860526</v>
       </c>
       <c r="T19">
-        <v>1.016451692713568</v>
+        <v>1.13623169195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.341504682947369</v>
+      </c>
+      <c r="D20">
+        <v>0.08656499415263157</v>
+      </c>
+      <c r="E20">
+        <v>1.587143551578947</v>
+      </c>
+      <c r="F20">
+        <v>0.6632488847368421</v>
+      </c>
+      <c r="G20">
+        <v>0.4148450784210526</v>
+      </c>
+      <c r="H20">
+        <v>2.313446413578948</v>
+      </c>
+      <c r="I20">
+        <v>1.341504682947369</v>
+      </c>
+      <c r="J20">
+        <v>2.313446413578948</v>
+      </c>
+      <c r="K20">
+        <v>1.341504682947369</v>
+      </c>
+      <c r="L20">
+        <v>0.4148450784210526</v>
+      </c>
+      <c r="M20">
+        <v>1.364145746</v>
+      </c>
+      <c r="N20">
+        <v>1.364145746</v>
+      </c>
+      <c r="O20">
+        <v>1.438478347859649</v>
+      </c>
+      <c r="P20">
+        <v>1.356598724982456</v>
+      </c>
+      <c r="Q20">
+        <v>1.356598724982456</v>
+      </c>
+      <c r="R20">
+        <v>1.352825214473684</v>
+      </c>
+      <c r="S20">
+        <v>1.352825214473684</v>
+      </c>
+      <c r="T20">
+        <v>1.067792267569298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.5393055635557689</v>
+      </c>
+      <c r="D21">
+        <v>3.239353708501928</v>
+      </c>
+      <c r="E21">
+        <v>0.1299080222276128</v>
+      </c>
+      <c r="F21">
+        <v>1.320394224057432</v>
+      </c>
+      <c r="G21">
+        <v>1.636972449125893</v>
+      </c>
+      <c r="H21">
+        <v>0.01541286061306674</v>
+      </c>
+      <c r="I21">
+        <v>0.5393055635557689</v>
+      </c>
+      <c r="J21">
+        <v>0.01541286061306674</v>
+      </c>
+      <c r="K21">
+        <v>0.5393055635557689</v>
+      </c>
+      <c r="L21">
+        <v>1.636972449125893</v>
+      </c>
+      <c r="M21">
+        <v>0.8261926548694798</v>
+      </c>
+      <c r="N21">
+        <v>0.8261926548694798</v>
+      </c>
+      <c r="O21">
+        <v>0.5940977773221908</v>
+      </c>
+      <c r="P21">
+        <v>0.7305636244315762</v>
+      </c>
+      <c r="Q21">
+        <v>0.7305636244315762</v>
+      </c>
+      <c r="R21">
+        <v>0.6827491092126243</v>
+      </c>
+      <c r="S21">
+        <v>0.6827491092126243</v>
+      </c>
+      <c r="T21">
+        <v>1.146891138013617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.409578004869539</v>
+      </c>
+      <c r="D22">
+        <v>0.6710635157005969</v>
+      </c>
+      <c r="E22">
+        <v>0.6777199424130483</v>
+      </c>
+      <c r="F22">
+        <v>1.216750179240604</v>
+      </c>
+      <c r="G22">
+        <v>1.131783605331437</v>
+      </c>
+      <c r="H22">
+        <v>0.2282703272202106</v>
+      </c>
+      <c r="I22">
+        <v>1.409578004869539</v>
+      </c>
+      <c r="J22">
+        <v>0.2282703272202106</v>
+      </c>
+      <c r="K22">
+        <v>1.409578004869539</v>
+      </c>
+      <c r="L22">
+        <v>1.131783605331437</v>
+      </c>
+      <c r="M22">
+        <v>0.6800269662758238</v>
+      </c>
+      <c r="N22">
+        <v>0.6800269662758238</v>
+      </c>
+      <c r="O22">
+        <v>0.6792579583215653</v>
+      </c>
+      <c r="P22">
+        <v>0.9232106458070621</v>
+      </c>
+      <c r="Q22">
+        <v>0.9232106458070621</v>
+      </c>
+      <c r="R22">
+        <v>1.044802485572681</v>
+      </c>
+      <c r="S22">
+        <v>1.044802485572681</v>
+      </c>
+      <c r="T22">
+        <v>0.8891942624625725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.7997830995241434</v>
+      </c>
+      <c r="D23">
+        <v>0.9597020113045059</v>
+      </c>
+      <c r="E23">
+        <v>1.008178661707156</v>
+      </c>
+      <c r="F23">
+        <v>1.044120691818265</v>
+      </c>
+      <c r="G23">
+        <v>1.137698033442856</v>
+      </c>
+      <c r="H23">
+        <v>0.7496650844597271</v>
+      </c>
+      <c r="I23">
+        <v>0.7997830995241434</v>
+      </c>
+      <c r="J23">
+        <v>0.7496650844597271</v>
+      </c>
+      <c r="K23">
+        <v>0.7997830995241434</v>
+      </c>
+      <c r="L23">
+        <v>1.137698033442856</v>
+      </c>
+      <c r="M23">
+        <v>0.9436815589512917</v>
+      </c>
+      <c r="N23">
+        <v>0.9436815589512917</v>
+      </c>
+      <c r="O23">
+        <v>0.9651805932032467</v>
+      </c>
+      <c r="P23">
+        <v>0.8957154058089088</v>
+      </c>
+      <c r="Q23">
+        <v>0.8957154058089088</v>
+      </c>
+      <c r="R23">
+        <v>0.8717323292377175</v>
+      </c>
+      <c r="S23">
+        <v>0.8717323292377175</v>
+      </c>
+      <c r="T23">
+        <v>0.9498579303761091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.212438411798979</v>
+      </c>
+      <c r="D24">
+        <v>1.142429010762398</v>
+      </c>
+      <c r="E24">
+        <v>0.9921217950800018</v>
+      </c>
+      <c r="F24">
+        <v>0.9406486785693521</v>
+      </c>
+      <c r="G24">
+        <v>0.8302766116245317</v>
+      </c>
+      <c r="H24">
+        <v>1.268981835564233</v>
+      </c>
+      <c r="I24">
+        <v>1.212438411798979</v>
+      </c>
+      <c r="J24">
+        <v>1.268981835564233</v>
+      </c>
+      <c r="K24">
+        <v>1.212438411798979</v>
+      </c>
+      <c r="L24">
+        <v>0.8302766116245317</v>
+      </c>
+      <c r="M24">
+        <v>1.049629223594382</v>
+      </c>
+      <c r="N24">
+        <v>1.049629223594382</v>
+      </c>
+      <c r="O24">
+        <v>1.030460080756256</v>
+      </c>
+      <c r="P24">
+        <v>1.103898952995915</v>
+      </c>
+      <c r="Q24">
+        <v>1.103898952995915</v>
+      </c>
+      <c r="R24">
+        <v>1.131033817696681</v>
+      </c>
+      <c r="S24">
+        <v>1.131033817696681</v>
+      </c>
+      <c r="T24">
+        <v>1.064482723899916</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.2404702404141349</v>
+      </c>
+      <c r="D25">
+        <v>0.04375825964634195</v>
+      </c>
+      <c r="E25">
+        <v>2.166991480852296</v>
+      </c>
+      <c r="F25">
+        <v>0.4076798692637058</v>
+      </c>
+      <c r="G25">
+        <v>0.4758779848770467</v>
+      </c>
+      <c r="H25">
+        <v>3.635942637510909</v>
+      </c>
+      <c r="I25">
+        <v>0.2404702404141349</v>
+      </c>
+      <c r="J25">
+        <v>3.635942637510909</v>
+      </c>
+      <c r="K25">
+        <v>0.2404702404141349</v>
+      </c>
+      <c r="L25">
+        <v>0.4758779848770467</v>
+      </c>
+      <c r="M25">
+        <v>2.055910311193978</v>
+      </c>
+      <c r="N25">
+        <v>2.055910311193978</v>
+      </c>
+      <c r="O25">
+        <v>2.092937367746751</v>
+      </c>
+      <c r="P25">
+        <v>1.45076362093403</v>
+      </c>
+      <c r="Q25">
+        <v>1.45076362093403</v>
+      </c>
+      <c r="R25">
+        <v>1.148190275804057</v>
+      </c>
+      <c r="S25">
+        <v>1.148190275804057</v>
+      </c>
+      <c r="T25">
+        <v>1.161786745427406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.8386491562959592</v>
+      </c>
+      <c r="D26">
+        <v>0.3732002823117418</v>
+      </c>
+      <c r="E26">
+        <v>1.351062220515084</v>
+      </c>
+      <c r="F26">
+        <v>0.8973540345668162</v>
+      </c>
+      <c r="G26">
+        <v>0.9237306816719274</v>
+      </c>
+      <c r="H26">
+        <v>1.139827550582419</v>
+      </c>
+      <c r="I26">
+        <v>0.8386491562959592</v>
+      </c>
+      <c r="J26">
+        <v>1.139827550582419</v>
+      </c>
+      <c r="K26">
+        <v>0.8386491562959592</v>
+      </c>
+      <c r="L26">
+        <v>0.9237306816719274</v>
+      </c>
+      <c r="M26">
+        <v>1.031779116127173</v>
+      </c>
+      <c r="N26">
+        <v>1.031779116127173</v>
+      </c>
+      <c r="O26">
+        <v>1.13820681758981</v>
+      </c>
+      <c r="P26">
+        <v>0.9674024628501018</v>
+      </c>
+      <c r="Q26">
+        <v>0.9674024628501018</v>
+      </c>
+      <c r="R26">
+        <v>0.9352141362115661</v>
+      </c>
+      <c r="S26">
+        <v>0.9352141362115661</v>
+      </c>
+      <c r="T26">
+        <v>0.9206373209906579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9664443216067362</v>
+      </c>
+      <c r="D27">
+        <v>1.063381027047922</v>
+      </c>
+      <c r="E27">
+        <v>0.9820780324749061</v>
+      </c>
+      <c r="F27">
+        <v>1.008743120901387</v>
+      </c>
+      <c r="G27">
+        <v>1.039176766960464</v>
+      </c>
+      <c r="H27">
+        <v>0.8799281347641448</v>
+      </c>
+      <c r="I27">
+        <v>0.9664443216067362</v>
+      </c>
+      <c r="J27">
+        <v>0.8799281347641448</v>
+      </c>
+      <c r="K27">
+        <v>0.9664443216067362</v>
+      </c>
+      <c r="L27">
+        <v>1.039176766960464</v>
+      </c>
+      <c r="M27">
+        <v>0.9595524508623045</v>
+      </c>
+      <c r="N27">
+        <v>0.9595524508623045</v>
+      </c>
+      <c r="O27">
+        <v>0.967060978066505</v>
+      </c>
+      <c r="P27">
+        <v>0.9618497411104484</v>
+      </c>
+      <c r="Q27">
+        <v>0.9618497411104484</v>
+      </c>
+      <c r="R27">
+        <v>0.9629983862345204</v>
+      </c>
+      <c r="S27">
+        <v>0.9629983862345204</v>
+      </c>
+      <c r="T27">
+        <v>0.9899585672925935</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.7601716800128608</v>
+      </c>
+      <c r="D28">
+        <v>1.228039301364555</v>
+      </c>
+      <c r="E28">
+        <v>1.120870462424089</v>
+      </c>
+      <c r="F28">
+        <v>0.9163540078698756</v>
+      </c>
+      <c r="G28">
+        <v>0.9981307301339544</v>
+      </c>
+      <c r="H28">
+        <v>1.344067653843549</v>
+      </c>
+      <c r="I28">
+        <v>0.7601716800128608</v>
+      </c>
+      <c r="J28">
+        <v>1.344067653843549</v>
+      </c>
+      <c r="K28">
+        <v>0.7601716800128608</v>
+      </c>
+      <c r="L28">
+        <v>0.9981307301339544</v>
+      </c>
+      <c r="M28">
+        <v>1.171099191988752</v>
+      </c>
+      <c r="N28">
+        <v>1.171099191988752</v>
+      </c>
+      <c r="O28">
+        <v>1.154356282133864</v>
+      </c>
+      <c r="P28">
+        <v>1.034123354663455</v>
+      </c>
+      <c r="Q28">
+        <v>1.034123354663455</v>
+      </c>
+      <c r="R28">
+        <v>0.9656354360008064</v>
+      </c>
+      <c r="S28">
+        <v>0.9656354360008064</v>
+      </c>
+      <c r="T28">
+        <v>1.061272305941481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.4662892099690821</v>
+      </c>
+      <c r="D29">
+        <v>1.01328740527117</v>
+      </c>
+      <c r="E29">
+        <v>1.199266511457424</v>
+      </c>
+      <c r="F29">
+        <v>0.9523693865403743</v>
+      </c>
+      <c r="G29">
+        <v>1.179759490263655</v>
+      </c>
+      <c r="H29">
+        <v>1.216807827568076</v>
+      </c>
+      <c r="I29">
+        <v>0.4662892099690821</v>
+      </c>
+      <c r="J29">
+        <v>1.216807827568076</v>
+      </c>
+      <c r="K29">
+        <v>0.4662892099690821</v>
+      </c>
+      <c r="L29">
+        <v>1.179759490263655</v>
+      </c>
+      <c r="M29">
+        <v>1.198283658915866</v>
+      </c>
+      <c r="N29">
+        <v>1.198283658915866</v>
+      </c>
+      <c r="O29">
+        <v>1.198611276429719</v>
+      </c>
+      <c r="P29">
+        <v>0.9542855092669379</v>
+      </c>
+      <c r="Q29">
+        <v>0.9542855092669379</v>
+      </c>
+      <c r="R29">
+        <v>0.8322864344424739</v>
+      </c>
+      <c r="S29">
+        <v>0.8322864344424739</v>
+      </c>
+      <c r="T29">
+        <v>1.004629971844964</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8564141077227182</v>
+        <v>1.221189792609341</v>
       </c>
       <c r="D4">
-        <v>0.8396309531039378</v>
+        <v>0.9396201007225231</v>
       </c>
       <c r="E4">
-        <v>1.212410446773005</v>
+        <v>0.9262178789043266</v>
       </c>
       <c r="F4">
-        <v>0.8838089093114947</v>
+        <v>1.026221305205276</v>
       </c>
       <c r="G4">
-        <v>0.8964301270167584</v>
+        <v>0.9584327961194382</v>
       </c>
       <c r="H4">
-        <v>1.59971702615134</v>
+        <v>0.8582328379610541</v>
       </c>
       <c r="I4">
-        <v>0.8564141077227182</v>
+        <v>1.221189792609341</v>
       </c>
       <c r="J4">
-        <v>1.59971702615134</v>
+        <v>0.8582328379610541</v>
       </c>
       <c r="K4">
-        <v>0.8564141077227182</v>
+        <v>1.221189792609341</v>
       </c>
       <c r="L4">
-        <v>0.8964301270167584</v>
+        <v>0.9584327961194382</v>
       </c>
       <c r="M4">
-        <v>1.248073576584049</v>
+        <v>0.9083328170402462</v>
       </c>
       <c r="N4">
-        <v>1.248073576584049</v>
+        <v>0.9083328170402462</v>
       </c>
       <c r="O4">
-        <v>1.236185866647035</v>
+        <v>0.914294504328273</v>
       </c>
       <c r="P4">
-        <v>1.117520420296939</v>
+        <v>1.012618475563278</v>
       </c>
       <c r="Q4">
-        <v>1.117520420296939</v>
+        <v>1.012618475563278</v>
       </c>
       <c r="R4">
-        <v>1.052243842153384</v>
+        <v>1.064761304824793</v>
       </c>
       <c r="S4">
-        <v>1.052243842153384</v>
+        <v>1.064761304824793</v>
       </c>
       <c r="T4">
-        <v>1.048068595013209</v>
+        <v>0.9883191185869932</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.274817591157063</v>
+        <v>1.127996090858772</v>
       </c>
       <c r="D5">
-        <v>0.9278723113507885</v>
+        <v>0.07361702122651693</v>
       </c>
       <c r="E5">
-        <v>0.9165582740561974</v>
+        <v>1.709753930853324</v>
       </c>
       <c r="F5">
-        <v>1.024612528811239</v>
+        <v>0.614231864488451</v>
       </c>
       <c r="G5">
-        <v>0.940516262139769</v>
+        <v>0.4132776642988496</v>
       </c>
       <c r="H5">
-        <v>0.861076431620533</v>
+        <v>2.55387400984212</v>
       </c>
       <c r="I5">
-        <v>1.274817591157063</v>
+        <v>1.127996090858772</v>
       </c>
       <c r="J5">
-        <v>0.861076431620533</v>
+        <v>2.55387400984212</v>
       </c>
       <c r="K5">
-        <v>1.274817591157063</v>
+        <v>1.127996090858772</v>
       </c>
       <c r="L5">
-        <v>0.940516262139769</v>
+        <v>0.4132776642988496</v>
       </c>
       <c r="M5">
-        <v>0.900796346880151</v>
+        <v>1.483575837070485</v>
       </c>
       <c r="N5">
-        <v>0.900796346880151</v>
+        <v>1.483575837070485</v>
       </c>
       <c r="O5">
-        <v>0.9060503226054998</v>
+        <v>1.558968534998098</v>
       </c>
       <c r="P5">
-        <v>1.025470094972455</v>
+        <v>1.365049254999914</v>
       </c>
       <c r="Q5">
-        <v>1.025470094972455</v>
+        <v>1.365049254999914</v>
       </c>
       <c r="R5">
-        <v>1.087806969018607</v>
+        <v>1.305785963964628</v>
       </c>
       <c r="S5">
-        <v>1.087806969018607</v>
+        <v>1.305785963964628</v>
       </c>
       <c r="T5">
-        <v>0.9909088998559318</v>
+        <v>1.082125096928006</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.334476105799165</v>
+        <v>0.8564141077227182</v>
       </c>
       <c r="D6">
-        <v>0.5746713978977687</v>
+        <v>0.8396309531039378</v>
       </c>
       <c r="E6">
-        <v>0.6580336027564961</v>
+        <v>1.212410446773005</v>
       </c>
       <c r="F6">
-        <v>1.080689559251478</v>
+        <v>0.8838089093114947</v>
       </c>
       <c r="G6">
-        <v>0.6895192710635015</v>
+        <v>0.8964301270167584</v>
       </c>
       <c r="H6">
-        <v>0.4384277514115949</v>
+        <v>1.59971702615134</v>
       </c>
       <c r="I6">
-        <v>2.334476105799165</v>
+        <v>0.8564141077227182</v>
       </c>
       <c r="J6">
-        <v>0.4384277514115949</v>
+        <v>1.59971702615134</v>
       </c>
       <c r="K6">
-        <v>2.334476105799165</v>
+        <v>0.8564141077227182</v>
       </c>
       <c r="L6">
-        <v>0.6895192710635015</v>
+        <v>0.8964301270167584</v>
       </c>
       <c r="M6">
-        <v>0.5639735112375482</v>
+        <v>1.248073576584049</v>
       </c>
       <c r="N6">
-        <v>0.5639735112375482</v>
+        <v>1.248073576584049</v>
       </c>
       <c r="O6">
-        <v>0.5953268750771975</v>
+        <v>1.236185866647035</v>
       </c>
       <c r="P6">
-        <v>1.154141042758087</v>
+        <v>1.117520420296939</v>
       </c>
       <c r="Q6">
-        <v>1.154141042758087</v>
+        <v>1.117520420296939</v>
       </c>
       <c r="R6">
-        <v>1.449224808518357</v>
+        <v>1.052243842153384</v>
       </c>
       <c r="S6">
-        <v>1.449224808518357</v>
+        <v>1.052243842153384</v>
       </c>
       <c r="T6">
-        <v>0.9626362813633339</v>
+        <v>1.048068595013209</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9918725954980357</v>
+        <v>1.274817591157063</v>
       </c>
       <c r="D7">
-        <v>1.030196654376188</v>
+        <v>0.9278723113507885</v>
       </c>
       <c r="E7">
-        <v>0.9945825050419091</v>
+        <v>0.9165582740561974</v>
       </c>
       <c r="F7">
-        <v>0.9989896867900607</v>
+        <v>1.024612528811239</v>
       </c>
       <c r="G7">
-        <v>1.003332075370879</v>
+        <v>0.940516262139769</v>
       </c>
       <c r="H7">
-        <v>1.01215044688674</v>
+        <v>0.861076431620533</v>
       </c>
       <c r="I7">
-        <v>0.9918725954980357</v>
+        <v>1.274817591157063</v>
       </c>
       <c r="J7">
-        <v>1.01215044688674</v>
+        <v>0.861076431620533</v>
       </c>
       <c r="K7">
-        <v>0.9918725954980357</v>
+        <v>1.274817591157063</v>
       </c>
       <c r="L7">
-        <v>1.003332075370879</v>
+        <v>0.940516262139769</v>
       </c>
       <c r="M7">
-        <v>1.007741261128809</v>
+        <v>0.900796346880151</v>
       </c>
       <c r="N7">
-        <v>1.007741261128809</v>
+        <v>0.900796346880151</v>
       </c>
       <c r="O7">
-        <v>1.003355009099843</v>
+        <v>0.9060503226054998</v>
       </c>
       <c r="P7">
-        <v>1.002451705918552</v>
+        <v>1.025470094972455</v>
       </c>
       <c r="Q7">
-        <v>1.002451705918552</v>
+        <v>1.025470094972455</v>
       </c>
       <c r="R7">
-        <v>0.9998069283134225</v>
+        <v>1.087806969018607</v>
       </c>
       <c r="S7">
-        <v>0.9998069283134225</v>
+        <v>1.087806969018607</v>
       </c>
       <c r="T7">
-        <v>1.005187327327302</v>
+        <v>0.9909088998559318</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.005411945947536</v>
+        <v>2.334476105799165</v>
       </c>
       <c r="D8">
-        <v>0.9930236120682219</v>
+        <v>0.5746713978977687</v>
       </c>
       <c r="E8">
-        <v>0.9988912554550683</v>
+        <v>0.6580336027564961</v>
       </c>
       <c r="F8">
-        <v>1.001133030494502</v>
+        <v>1.080689559251478</v>
       </c>
       <c r="G8">
-        <v>0.9998500368359728</v>
+        <v>0.6895192710635015</v>
       </c>
       <c r="H8">
-        <v>0.9940840418781506</v>
+        <v>0.4384277514115949</v>
       </c>
       <c r="I8">
-        <v>1.005411945947536</v>
+        <v>2.334476105799165</v>
       </c>
       <c r="J8">
-        <v>0.9940840418781506</v>
+        <v>0.4384277514115949</v>
       </c>
       <c r="K8">
-        <v>1.005411945947536</v>
+        <v>2.334476105799165</v>
       </c>
       <c r="L8">
-        <v>0.9998500368359728</v>
+        <v>0.6895192710635015</v>
       </c>
       <c r="M8">
-        <v>0.9969670393570618</v>
+        <v>0.5639735112375482</v>
       </c>
       <c r="N8">
-        <v>0.9969670393570618</v>
+        <v>0.5639735112375482</v>
       </c>
       <c r="O8">
-        <v>0.9976084447230639</v>
+        <v>0.5953268750771975</v>
       </c>
       <c r="P8">
-        <v>0.9997820082205532</v>
+        <v>1.154141042758087</v>
       </c>
       <c r="Q8">
-        <v>0.9997820082205532</v>
+        <v>1.154141042758087</v>
       </c>
       <c r="R8">
-        <v>1.001189492652299</v>
+        <v>1.449224808518357</v>
       </c>
       <c r="S8">
-        <v>1.001189492652299</v>
+        <v>1.449224808518357</v>
       </c>
       <c r="T8">
-        <v>0.9987323204465751</v>
+        <v>0.9626362813633339</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9860689872618645</v>
+        <v>0.9918725954980357</v>
       </c>
       <c r="D9">
-        <v>1.064538320365556</v>
+        <v>1.030196654376188</v>
       </c>
       <c r="E9">
-        <v>0.983645131545491</v>
+        <v>0.9945825050419091</v>
       </c>
       <c r="F9">
-        <v>1.000350930346756</v>
+        <v>0.9989896867900607</v>
       </c>
       <c r="G9">
-        <v>1.010291869281994</v>
+        <v>1.003332075370879</v>
       </c>
       <c r="H9">
-        <v>1.016575581491411</v>
+        <v>1.01215044688674</v>
       </c>
       <c r="I9">
-        <v>0.9860689872618645</v>
+        <v>0.9918725954980357</v>
       </c>
       <c r="J9">
-        <v>1.016575581491411</v>
+        <v>1.01215044688674</v>
       </c>
       <c r="K9">
-        <v>0.9860689872618645</v>
+        <v>0.9918725954980357</v>
       </c>
       <c r="L9">
-        <v>1.010291869281994</v>
+        <v>1.003332075370879</v>
       </c>
       <c r="M9">
-        <v>1.013433725386702</v>
+        <v>1.007741261128809</v>
       </c>
       <c r="N9">
-        <v>1.013433725386702</v>
+        <v>1.007741261128809</v>
       </c>
       <c r="O9">
-        <v>1.003504194106299</v>
+        <v>1.003355009099843</v>
       </c>
       <c r="P9">
-        <v>1.004312146011756</v>
+        <v>1.002451705918552</v>
       </c>
       <c r="Q9">
-        <v>1.004312146011756</v>
+        <v>1.002451705918552</v>
       </c>
       <c r="R9">
-        <v>0.9997513563242835</v>
+        <v>0.9998069283134225</v>
       </c>
       <c r="S9">
-        <v>0.9997513563242835</v>
+        <v>0.9998069283134225</v>
       </c>
       <c r="T9">
-        <v>1.010245136715512</v>
+        <v>1.005187327327302</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.381226572715396</v>
+        <v>1.005411945947536</v>
       </c>
       <c r="D10">
-        <v>0.5598625024751245</v>
+        <v>0.9930236120682219</v>
       </c>
       <c r="E10">
-        <v>0.6504061312607513</v>
+        <v>0.9988912554550683</v>
       </c>
       <c r="F10">
-        <v>1.080017393628173</v>
+        <v>1.001133030494502</v>
       </c>
       <c r="G10">
-        <v>0.671969163948091</v>
+        <v>0.9998500368359728</v>
       </c>
       <c r="H10">
-        <v>0.4433530439418549</v>
+        <v>0.9940840418781506</v>
       </c>
       <c r="I10">
-        <v>2.381226572715396</v>
+        <v>1.005411945947536</v>
       </c>
       <c r="J10">
-        <v>0.4433530439418549</v>
+        <v>0.9940840418781506</v>
       </c>
       <c r="K10">
-        <v>2.381226572715396</v>
+        <v>1.005411945947536</v>
       </c>
       <c r="L10">
-        <v>0.671969163948091</v>
+        <v>0.9998500368359728</v>
       </c>
       <c r="M10">
-        <v>0.557661103944973</v>
+        <v>0.9969670393570618</v>
       </c>
       <c r="N10">
-        <v>0.557661103944973</v>
+        <v>0.9969670393570618</v>
       </c>
       <c r="O10">
-        <v>0.5885761130502325</v>
+        <v>0.9976084447230639</v>
       </c>
       <c r="P10">
-        <v>1.165516260201781</v>
+        <v>0.9997820082205532</v>
       </c>
       <c r="Q10">
-        <v>1.165516260201781</v>
+        <v>0.9997820082205532</v>
       </c>
       <c r="R10">
-        <v>1.469443838330185</v>
+        <v>1.001189492652299</v>
       </c>
       <c r="S10">
-        <v>1.469443838330185</v>
+        <v>1.001189492652299</v>
       </c>
       <c r="T10">
-        <v>0.9644724679948985</v>
+        <v>0.9987323204465751</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9137549859073095</v>
+        <v>0.9860689872618645</v>
       </c>
       <c r="D11">
-        <v>0.6430609488091638</v>
+        <v>1.064538320365556</v>
       </c>
       <c r="E11">
-        <v>1.311502346073643</v>
+        <v>0.983645131545491</v>
       </c>
       <c r="F11">
-        <v>0.83790357023392</v>
+        <v>1.000350930346756</v>
       </c>
       <c r="G11">
-        <v>0.8068814652552126</v>
+        <v>1.010291869281994</v>
       </c>
       <c r="H11">
-        <v>1.746280914849011</v>
+        <v>1.016575581491411</v>
       </c>
       <c r="I11">
-        <v>0.9137549859073095</v>
+        <v>0.9860689872618645</v>
       </c>
       <c r="J11">
-        <v>1.746280914849011</v>
+        <v>1.016575581491411</v>
       </c>
       <c r="K11">
-        <v>0.9137549859073095</v>
+        <v>0.9860689872618645</v>
       </c>
       <c r="L11">
-        <v>0.8068814652552126</v>
+        <v>1.010291869281994</v>
       </c>
       <c r="M11">
-        <v>1.276581190052112</v>
+        <v>1.013433725386702</v>
       </c>
       <c r="N11">
-        <v>1.276581190052112</v>
+        <v>1.013433725386702</v>
       </c>
       <c r="O11">
-        <v>1.288221575392622</v>
+        <v>1.003504194106299</v>
       </c>
       <c r="P11">
-        <v>1.155639122003844</v>
+        <v>1.004312146011756</v>
       </c>
       <c r="Q11">
-        <v>1.155639122003844</v>
+        <v>1.004312146011756</v>
       </c>
       <c r="R11">
-        <v>1.095168087979711</v>
+        <v>0.9997513563242835</v>
       </c>
       <c r="S11">
-        <v>1.095168087979711</v>
+        <v>0.9997513563242835</v>
       </c>
       <c r="T11">
-        <v>1.043230705188043</v>
+        <v>1.010245136715512</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.402953735938945</v>
+        <v>2.381226572715396</v>
       </c>
       <c r="D12">
-        <v>0.84474377680368</v>
+        <v>0.5598625024751245</v>
       </c>
       <c r="E12">
-        <v>0.908816765320001</v>
+        <v>0.6504061312607513</v>
       </c>
       <c r="F12">
-        <v>1.021504711189474</v>
+        <v>1.080017393628173</v>
       </c>
       <c r="G12">
-        <v>0.8913210416105258</v>
+        <v>0.671969163948091</v>
       </c>
       <c r="H12">
-        <v>0.8608703723029469</v>
+        <v>0.4433530439418549</v>
       </c>
       <c r="I12">
-        <v>1.402953735938945</v>
+        <v>2.381226572715396</v>
       </c>
       <c r="J12">
-        <v>0.8608703723029469</v>
+        <v>0.4433530439418549</v>
       </c>
       <c r="K12">
-        <v>1.402953735938945</v>
+        <v>2.381226572715396</v>
       </c>
       <c r="L12">
-        <v>0.8913210416105258</v>
+        <v>0.671969163948091</v>
       </c>
       <c r="M12">
-        <v>0.8760957069567363</v>
+        <v>0.557661103944973</v>
       </c>
       <c r="N12">
-        <v>0.8760957069567363</v>
+        <v>0.557661103944973</v>
       </c>
       <c r="O12">
-        <v>0.8870027264111578</v>
+        <v>0.5885761130502325</v>
       </c>
       <c r="P12">
-        <v>1.051715049950806</v>
+        <v>1.165516260201781</v>
       </c>
       <c r="Q12">
-        <v>1.051715049950806</v>
+        <v>1.165516260201781</v>
       </c>
       <c r="R12">
-        <v>1.139524721447841</v>
+        <v>1.469443838330185</v>
       </c>
       <c r="S12">
-        <v>1.139524721447841</v>
+        <v>1.469443838330185</v>
       </c>
       <c r="T12">
-        <v>0.9883684005275954</v>
+        <v>0.9644724679948985</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9611957775671245</v>
+        <v>0.9137549859073095</v>
       </c>
       <c r="D13">
-        <v>0.9868929358215613</v>
+        <v>0.6430609488091638</v>
       </c>
       <c r="E13">
-        <v>1.048175281462427</v>
+        <v>1.311502346073643</v>
       </c>
       <c r="F13">
-        <v>0.9709772002885996</v>
+        <v>0.83790357023392</v>
       </c>
       <c r="G13">
-        <v>0.9737030085708783</v>
+        <v>0.8068814652552126</v>
       </c>
       <c r="H13">
-        <v>1.154688772576062</v>
+        <v>1.746280914849011</v>
       </c>
       <c r="I13">
-        <v>0.9611957775671245</v>
+        <v>0.9137549859073095</v>
       </c>
       <c r="J13">
-        <v>1.154688772576062</v>
+        <v>1.746280914849011</v>
       </c>
       <c r="K13">
-        <v>0.9611957775671245</v>
+        <v>0.9137549859073095</v>
       </c>
       <c r="L13">
-        <v>0.9737030085708783</v>
+        <v>0.8068814652552126</v>
       </c>
       <c r="M13">
-        <v>1.06419589057347</v>
+        <v>1.276581190052112</v>
       </c>
       <c r="N13">
-        <v>1.06419589057347</v>
+        <v>1.276581190052112</v>
       </c>
       <c r="O13">
-        <v>1.058855687536456</v>
+        <v>1.288221575392622</v>
       </c>
       <c r="P13">
-        <v>1.029862519571355</v>
+        <v>1.155639122003844</v>
       </c>
       <c r="Q13">
-        <v>1.029862519571355</v>
+        <v>1.155639122003844</v>
       </c>
       <c r="R13">
-        <v>1.012695834070297</v>
+        <v>1.095168087979711</v>
       </c>
       <c r="S13">
-        <v>1.012695834070297</v>
+        <v>1.095168087979711</v>
       </c>
       <c r="T13">
-        <v>1.015938829381109</v>
+        <v>1.043230705188043</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>3.442862200000002</v>
+        <v>1.402953735938945</v>
       </c>
       <c r="D14">
-        <v>0.2138068799999999</v>
+        <v>0.84474377680368</v>
       </c>
       <c r="E14">
-        <v>0.3913456500000007</v>
+        <v>0.908816765320001</v>
       </c>
       <c r="F14">
-        <v>1.134</v>
+        <v>1.021504711189474</v>
       </c>
       <c r="G14">
-        <v>0.4216041200000005</v>
+        <v>0.8913210416105258</v>
       </c>
       <c r="H14">
-        <v>0.02330075600000002</v>
+        <v>0.8608703723029469</v>
       </c>
       <c r="I14">
-        <v>3.442862200000002</v>
+        <v>1.402953735938945</v>
       </c>
       <c r="J14">
-        <v>0.02330075600000002</v>
+        <v>0.8608703723029469</v>
       </c>
       <c r="K14">
-        <v>3.442862200000002</v>
+        <v>1.402953735938945</v>
       </c>
       <c r="L14">
-        <v>0.4216041200000005</v>
+        <v>0.8913210416105258</v>
       </c>
       <c r="M14">
-        <v>0.2224524380000003</v>
+        <v>0.8760957069567363</v>
       </c>
       <c r="N14">
-        <v>0.2224524380000003</v>
+        <v>0.8760957069567363</v>
       </c>
       <c r="O14">
-        <v>0.2787501753333337</v>
+        <v>0.8870027264111578</v>
       </c>
       <c r="P14">
-        <v>1.295922358666668</v>
+        <v>1.051715049950806</v>
       </c>
       <c r="Q14">
-        <v>1.295922358666667</v>
+        <v>1.051715049950806</v>
       </c>
       <c r="R14">
-        <v>1.832657319000001</v>
+        <v>1.139524721447841</v>
       </c>
       <c r="S14">
-        <v>1.832657319000001</v>
+        <v>1.139524721447841</v>
       </c>
       <c r="T14">
-        <v>0.9378199343333339</v>
+        <v>0.9883684005275954</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>3.4428622</v>
+        <v>0.9611957775671245</v>
       </c>
       <c r="D15">
-        <v>0.21380688</v>
+        <v>0.9868929358215613</v>
       </c>
       <c r="E15">
-        <v>0.39134565</v>
+        <v>1.048175281462427</v>
       </c>
       <c r="F15">
-        <v>1.134</v>
+        <v>0.9709772002885996</v>
       </c>
       <c r="G15">
-        <v>0.42160412</v>
+        <v>0.9737030085708783</v>
       </c>
       <c r="H15">
-        <v>0.023300756</v>
+        <v>1.154688772576062</v>
       </c>
       <c r="I15">
-        <v>3.4428622</v>
+        <v>0.9611957775671245</v>
       </c>
       <c r="J15">
-        <v>0.023300756</v>
+        <v>1.154688772576062</v>
       </c>
       <c r="K15">
-        <v>3.4428622</v>
+        <v>0.9611957775671245</v>
       </c>
       <c r="L15">
-        <v>0.42160412</v>
+        <v>0.9737030085708783</v>
       </c>
       <c r="M15">
-        <v>0.222452438</v>
+        <v>1.06419589057347</v>
       </c>
       <c r="N15">
-        <v>0.222452438</v>
+        <v>1.06419589057347</v>
       </c>
       <c r="O15">
-        <v>0.2787501753333333</v>
+        <v>1.058855687536456</v>
       </c>
       <c r="P15">
-        <v>1.295922358666667</v>
+        <v>1.029862519571355</v>
       </c>
       <c r="Q15">
-        <v>1.295922358666667</v>
+        <v>1.029862519571355</v>
       </c>
       <c r="R15">
-        <v>1.832657319</v>
+        <v>1.012695834070297</v>
       </c>
       <c r="S15">
-        <v>1.832657319</v>
+        <v>1.012695834070297</v>
       </c>
       <c r="T15">
-        <v>0.9378199343333332</v>
+        <v>1.015938829381109</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.023300756</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="D16">
-        <v>0.0017993233</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="E16">
-        <v>2.4148578</v>
+        <v>0.3913456500000007</v>
       </c>
       <c r="F16">
-        <v>0.10214557</v>
+        <v>1.134</v>
       </c>
       <c r="G16">
-        <v>0.14230601</v>
+        <v>0.4216041200000005</v>
       </c>
       <c r="H16">
-        <v>6.8875632</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="I16">
-        <v>0.023300756</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="J16">
-        <v>6.8875632</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="K16">
-        <v>0.023300756</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="L16">
-        <v>0.14230601</v>
+        <v>0.4216041200000005</v>
       </c>
       <c r="M16">
-        <v>3.514934605</v>
+        <v>0.2224524380000003</v>
       </c>
       <c r="N16">
-        <v>3.514934605</v>
+        <v>0.2224524380000003</v>
       </c>
       <c r="O16">
-        <v>3.148242336666667</v>
+        <v>0.2787501753333337</v>
       </c>
       <c r="P16">
-        <v>2.351056655333334</v>
+        <v>1.295922358666668</v>
       </c>
       <c r="Q16">
-        <v>2.351056655333334</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R16">
-        <v>1.7691176805</v>
+        <v>1.832657319000001</v>
       </c>
       <c r="S16">
-        <v>1.7691176805</v>
+        <v>1.832657319000001</v>
       </c>
       <c r="T16">
-        <v>1.59532877655</v>
+        <v>0.9378199343333339</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.38932877</v>
+        <v>3.4428622</v>
       </c>
       <c r="D17">
-        <v>0.7764006599999999</v>
+        <v>0.21380688</v>
       </c>
       <c r="E17">
-        <v>0.8848152900000001</v>
+        <v>0.39134565</v>
       </c>
       <c r="F17">
-        <v>1.1829396</v>
+        <v>1.134</v>
       </c>
       <c r="G17">
-        <v>1.6230797</v>
+        <v>0.42160412</v>
       </c>
       <c r="H17">
-        <v>0.4216482</v>
+        <v>0.023300756</v>
       </c>
       <c r="I17">
-        <v>0.38932877</v>
+        <v>3.4428622</v>
       </c>
       <c r="J17">
-        <v>0.4216482</v>
+        <v>0.023300756</v>
       </c>
       <c r="K17">
-        <v>0.38932877</v>
+        <v>3.4428622</v>
       </c>
       <c r="L17">
-        <v>1.6230797</v>
+        <v>0.42160412</v>
       </c>
       <c r="M17">
-        <v>1.02236395</v>
+        <v>0.222452438</v>
       </c>
       <c r="N17">
-        <v>1.02236395</v>
+        <v>0.222452438</v>
       </c>
       <c r="O17">
-        <v>0.9765143966666666</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P17">
-        <v>0.8113522233333333</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q17">
-        <v>0.8113522233333333</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R17">
-        <v>0.70584636</v>
+        <v>1.832657319</v>
       </c>
       <c r="S17">
-        <v>0.70584636</v>
+        <v>1.832657319</v>
       </c>
       <c r="T17">
-        <v>0.8797020366666667</v>
+        <v>0.9378199343333332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8017197602739731</v>
+        <v>0.023300756</v>
       </c>
       <c r="D18">
-        <v>1.808152796945205</v>
+        <v>0.0017993233</v>
       </c>
       <c r="E18">
-        <v>0.8044317555890412</v>
+        <v>2.4148578</v>
       </c>
       <c r="F18">
-        <v>1.004260191506849</v>
+        <v>0.10214557</v>
       </c>
       <c r="G18">
-        <v>1.131361246849315</v>
+        <v>0.14230601</v>
       </c>
       <c r="H18">
-        <v>1.208304202323287</v>
+        <v>6.8875632</v>
       </c>
       <c r="I18">
-        <v>0.8017197602739731</v>
+        <v>0.023300756</v>
       </c>
       <c r="J18">
-        <v>1.208304202323287</v>
+        <v>6.8875632</v>
       </c>
       <c r="K18">
-        <v>0.8017197602739731</v>
+        <v>0.023300756</v>
       </c>
       <c r="L18">
-        <v>1.131361246849315</v>
+        <v>0.14230601</v>
       </c>
       <c r="M18">
-        <v>1.169832724586301</v>
+        <v>3.514934605</v>
       </c>
       <c r="N18">
-        <v>1.169832724586301</v>
+        <v>3.514934605</v>
       </c>
       <c r="O18">
-        <v>1.048032401587214</v>
+        <v>3.148242336666667</v>
       </c>
       <c r="P18">
-        <v>1.047128403148858</v>
+        <v>2.351056655333334</v>
       </c>
       <c r="Q18">
-        <v>1.047128403148858</v>
+        <v>2.351056655333334</v>
       </c>
       <c r="R18">
-        <v>0.9857762424301371</v>
+        <v>1.7691176805</v>
       </c>
       <c r="S18">
-        <v>0.9857762424301371</v>
+        <v>1.7691176805</v>
       </c>
       <c r="T18">
-        <v>1.126371658914612</v>
+        <v>1.59532877655</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8159869238421055</v>
+        <v>0.38932877</v>
       </c>
       <c r="D19">
-        <v>1.739638943468421</v>
+        <v>0.7764006599999999</v>
       </c>
       <c r="E19">
-        <v>0.8413760448421054</v>
+        <v>0.8848152900000001</v>
       </c>
       <c r="F19">
-        <v>0.9822274357894737</v>
+        <v>1.1829396</v>
       </c>
       <c r="G19">
-        <v>1.095994567894737</v>
+        <v>1.6230797</v>
       </c>
       <c r="H19">
-        <v>1.342166235863158</v>
+        <v>0.4216482</v>
       </c>
       <c r="I19">
-        <v>0.8159869238421055</v>
+        <v>0.38932877</v>
       </c>
       <c r="J19">
-        <v>1.342166235863158</v>
+        <v>0.4216482</v>
       </c>
       <c r="K19">
-        <v>0.8159869238421055</v>
+        <v>0.38932877</v>
       </c>
       <c r="L19">
-        <v>1.095994567894737</v>
+        <v>1.6230797</v>
       </c>
       <c r="M19">
-        <v>1.219080401878947</v>
+        <v>1.02236395</v>
       </c>
       <c r="N19">
-        <v>1.219080401878947</v>
+        <v>1.02236395</v>
       </c>
       <c r="O19">
-        <v>1.093178949533333</v>
+        <v>0.9765143966666666</v>
       </c>
       <c r="P19">
-        <v>1.0847159092</v>
+        <v>0.8113522233333333</v>
       </c>
       <c r="Q19">
-        <v>1.0847159092</v>
+        <v>0.8113522233333333</v>
       </c>
       <c r="R19">
-        <v>1.017533662860526</v>
+        <v>0.70584636</v>
       </c>
       <c r="S19">
-        <v>1.017533662860526</v>
+        <v>0.70584636</v>
       </c>
       <c r="T19">
-        <v>1.13623169195</v>
+        <v>0.8797020366666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.341504682947369</v>
+        <v>0.8017197602739731</v>
       </c>
       <c r="D20">
-        <v>0.08656499415263157</v>
+        <v>1.808152796945205</v>
       </c>
       <c r="E20">
-        <v>1.587143551578947</v>
+        <v>0.8044317555890412</v>
       </c>
       <c r="F20">
-        <v>0.6632488847368421</v>
+        <v>1.004260191506849</v>
       </c>
       <c r="G20">
-        <v>0.4148450784210526</v>
+        <v>1.131361246849315</v>
       </c>
       <c r="H20">
-        <v>2.313446413578948</v>
+        <v>1.208304202323287</v>
       </c>
       <c r="I20">
-        <v>1.341504682947369</v>
+        <v>0.8017197602739731</v>
       </c>
       <c r="J20">
-        <v>2.313446413578948</v>
+        <v>1.208304202323287</v>
       </c>
       <c r="K20">
-        <v>1.341504682947369</v>
+        <v>0.8017197602739731</v>
       </c>
       <c r="L20">
-        <v>0.4148450784210526</v>
+        <v>1.131361246849315</v>
       </c>
       <c r="M20">
-        <v>1.364145746</v>
+        <v>1.169832724586301</v>
       </c>
       <c r="N20">
-        <v>1.364145746</v>
+        <v>1.169832724586301</v>
       </c>
       <c r="O20">
-        <v>1.438478347859649</v>
+        <v>1.048032401587214</v>
       </c>
       <c r="P20">
-        <v>1.356598724982456</v>
+        <v>1.047128403148858</v>
       </c>
       <c r="Q20">
-        <v>1.356598724982456</v>
+        <v>1.047128403148858</v>
       </c>
       <c r="R20">
-        <v>1.352825214473684</v>
+        <v>0.9857762424301371</v>
       </c>
       <c r="S20">
-        <v>1.352825214473684</v>
+        <v>0.9857762424301371</v>
       </c>
       <c r="T20">
-        <v>1.067792267569298</v>
+        <v>1.126371658914612</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.5393055635557689</v>
+        <v>0.8159869238421055</v>
       </c>
       <c r="D21">
-        <v>3.239353708501928</v>
+        <v>1.739638943468421</v>
       </c>
       <c r="E21">
-        <v>0.1299080222276128</v>
+        <v>0.8413760448421054</v>
       </c>
       <c r="F21">
-        <v>1.320394224057432</v>
+        <v>0.9822274357894737</v>
       </c>
       <c r="G21">
-        <v>1.636972449125893</v>
+        <v>1.095994567894737</v>
       </c>
       <c r="H21">
-        <v>0.01541286061306674</v>
+        <v>1.342166235863158</v>
       </c>
       <c r="I21">
-        <v>0.5393055635557689</v>
+        <v>0.8159869238421055</v>
       </c>
       <c r="J21">
-        <v>0.01541286061306674</v>
+        <v>1.342166235863158</v>
       </c>
       <c r="K21">
-        <v>0.5393055635557689</v>
+        <v>0.8159869238421055</v>
       </c>
       <c r="L21">
-        <v>1.636972449125893</v>
+        <v>1.095994567894737</v>
       </c>
       <c r="M21">
-        <v>0.8261926548694798</v>
+        <v>1.219080401878947</v>
       </c>
       <c r="N21">
-        <v>0.8261926548694798</v>
+        <v>1.219080401878947</v>
       </c>
       <c r="O21">
-        <v>0.5940977773221908</v>
+        <v>1.093178949533333</v>
       </c>
       <c r="P21">
-        <v>0.7305636244315762</v>
+        <v>1.0847159092</v>
       </c>
       <c r="Q21">
-        <v>0.7305636244315762</v>
+        <v>1.0847159092</v>
       </c>
       <c r="R21">
-        <v>0.6827491092126243</v>
+        <v>1.017533662860526</v>
       </c>
       <c r="S21">
-        <v>0.6827491092126243</v>
+        <v>1.017533662860526</v>
       </c>
       <c r="T21">
-        <v>1.146891138013617</v>
+        <v>1.13623169195</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.409578004869539</v>
+        <v>1.341504682947369</v>
       </c>
       <c r="D22">
-        <v>0.6710635157005969</v>
+        <v>0.08656499415263157</v>
       </c>
       <c r="E22">
-        <v>0.6777199424130483</v>
+        <v>1.587143551578947</v>
       </c>
       <c r="F22">
-        <v>1.216750179240604</v>
+        <v>0.6632488847368421</v>
       </c>
       <c r="G22">
-        <v>1.131783605331437</v>
+        <v>0.4148450784210526</v>
       </c>
       <c r="H22">
-        <v>0.2282703272202106</v>
+        <v>2.313446413578948</v>
       </c>
       <c r="I22">
-        <v>1.409578004869539</v>
+        <v>1.341504682947369</v>
       </c>
       <c r="J22">
-        <v>0.2282703272202106</v>
+        <v>2.313446413578948</v>
       </c>
       <c r="K22">
-        <v>1.409578004869539</v>
+        <v>1.341504682947369</v>
       </c>
       <c r="L22">
-        <v>1.131783605331437</v>
+        <v>0.4148450784210526</v>
       </c>
       <c r="M22">
-        <v>0.6800269662758238</v>
+        <v>1.364145746</v>
       </c>
       <c r="N22">
-        <v>0.6800269662758238</v>
+        <v>1.364145746</v>
       </c>
       <c r="O22">
-        <v>0.6792579583215653</v>
+        <v>1.438478347859649</v>
       </c>
       <c r="P22">
-        <v>0.9232106458070621</v>
+        <v>1.356598724982456</v>
       </c>
       <c r="Q22">
-        <v>0.9232106458070621</v>
+        <v>1.356598724982456</v>
       </c>
       <c r="R22">
-        <v>1.044802485572681</v>
+        <v>1.352825214473684</v>
       </c>
       <c r="S22">
-        <v>1.044802485572681</v>
+        <v>1.352825214473684</v>
       </c>
       <c r="T22">
-        <v>0.8891942624625725</v>
+        <v>1.067792267569298</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7997830995241434</v>
+        <v>0.5393055635557689</v>
       </c>
       <c r="D23">
-        <v>0.9597020113045059</v>
+        <v>3.239353708501928</v>
       </c>
       <c r="E23">
-        <v>1.008178661707156</v>
+        <v>0.1299080222276128</v>
       </c>
       <c r="F23">
-        <v>1.044120691818265</v>
+        <v>1.320394224057432</v>
       </c>
       <c r="G23">
-        <v>1.137698033442856</v>
+        <v>1.636972449125893</v>
       </c>
       <c r="H23">
-        <v>0.7496650844597271</v>
+        <v>0.01541286061306674</v>
       </c>
       <c r="I23">
-        <v>0.7997830995241434</v>
+        <v>0.5393055635557689</v>
       </c>
       <c r="J23">
-        <v>0.7496650844597271</v>
+        <v>0.01541286061306674</v>
       </c>
       <c r="K23">
-        <v>0.7997830995241434</v>
+        <v>0.5393055635557689</v>
       </c>
       <c r="L23">
-        <v>1.137698033442856</v>
+        <v>1.636972449125893</v>
       </c>
       <c r="M23">
-        <v>0.9436815589512917</v>
+        <v>0.8261926548694798</v>
       </c>
       <c r="N23">
-        <v>0.9436815589512917</v>
+        <v>0.8261926548694798</v>
       </c>
       <c r="O23">
-        <v>0.9651805932032467</v>
+        <v>0.5940977773221908</v>
       </c>
       <c r="P23">
-        <v>0.8957154058089088</v>
+        <v>0.7305636244315762</v>
       </c>
       <c r="Q23">
-        <v>0.8957154058089088</v>
+        <v>0.7305636244315762</v>
       </c>
       <c r="R23">
-        <v>0.8717323292377175</v>
+        <v>0.6827491092126243</v>
       </c>
       <c r="S23">
-        <v>0.8717323292377175</v>
+        <v>0.6827491092126243</v>
       </c>
       <c r="T23">
-        <v>0.9498579303761091</v>
+        <v>1.146891138013617</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.212438411798979</v>
+        <v>1.409578004869539</v>
       </c>
       <c r="D24">
-        <v>1.142429010762398</v>
+        <v>0.6710635157005969</v>
       </c>
       <c r="E24">
-        <v>0.9921217950800018</v>
+        <v>0.6777199424130483</v>
       </c>
       <c r="F24">
-        <v>0.9406486785693521</v>
+        <v>1.216750179240604</v>
       </c>
       <c r="G24">
-        <v>0.8302766116245317</v>
+        <v>1.131783605331437</v>
       </c>
       <c r="H24">
-        <v>1.268981835564233</v>
+        <v>0.2282703272202106</v>
       </c>
       <c r="I24">
-        <v>1.212438411798979</v>
+        <v>1.409578004869539</v>
       </c>
       <c r="J24">
-        <v>1.268981835564233</v>
+        <v>0.2282703272202106</v>
       </c>
       <c r="K24">
-        <v>1.212438411798979</v>
+        <v>1.409578004869539</v>
       </c>
       <c r="L24">
-        <v>0.8302766116245317</v>
+        <v>1.131783605331437</v>
       </c>
       <c r="M24">
-        <v>1.049629223594382</v>
+        <v>0.6800269662758238</v>
       </c>
       <c r="N24">
-        <v>1.049629223594382</v>
+        <v>0.6800269662758238</v>
       </c>
       <c r="O24">
-        <v>1.030460080756256</v>
+        <v>0.6792579583215653</v>
       </c>
       <c r="P24">
-        <v>1.103898952995915</v>
+        <v>0.9232106458070621</v>
       </c>
       <c r="Q24">
-        <v>1.103898952995915</v>
+        <v>0.9232106458070621</v>
       </c>
       <c r="R24">
-        <v>1.131033817696681</v>
+        <v>1.044802485572681</v>
       </c>
       <c r="S24">
-        <v>1.131033817696681</v>
+        <v>1.044802485572681</v>
       </c>
       <c r="T24">
-        <v>1.064482723899916</v>
+        <v>0.8891942624625725</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.2404702404141349</v>
+        <v>0.7997830995241434</v>
       </c>
       <c r="D25">
-        <v>0.04375825964634195</v>
+        <v>0.9597020113045059</v>
       </c>
       <c r="E25">
-        <v>2.166991480852296</v>
+        <v>1.008178661707156</v>
       </c>
       <c r="F25">
-        <v>0.4076798692637058</v>
+        <v>1.044120691818265</v>
       </c>
       <c r="G25">
-        <v>0.4758779848770467</v>
+        <v>1.137698033442856</v>
       </c>
       <c r="H25">
-        <v>3.635942637510909</v>
+        <v>0.7496650844597271</v>
       </c>
       <c r="I25">
-        <v>0.2404702404141349</v>
+        <v>0.7997830995241434</v>
       </c>
       <c r="J25">
-        <v>3.635942637510909</v>
+        <v>0.7496650844597271</v>
       </c>
       <c r="K25">
-        <v>0.2404702404141349</v>
+        <v>0.7997830995241434</v>
       </c>
       <c r="L25">
-        <v>0.4758779848770467</v>
+        <v>1.137698033442856</v>
       </c>
       <c r="M25">
-        <v>2.055910311193978</v>
+        <v>0.9436815589512917</v>
       </c>
       <c r="N25">
-        <v>2.055910311193978</v>
+        <v>0.9436815589512917</v>
       </c>
       <c r="O25">
-        <v>2.092937367746751</v>
+        <v>0.9651805932032467</v>
       </c>
       <c r="P25">
-        <v>1.45076362093403</v>
+        <v>0.8957154058089088</v>
       </c>
       <c r="Q25">
-        <v>1.45076362093403</v>
+        <v>0.8957154058089088</v>
       </c>
       <c r="R25">
-        <v>1.148190275804057</v>
+        <v>0.8717323292377175</v>
       </c>
       <c r="S25">
-        <v>1.148190275804057</v>
+        <v>0.8717323292377175</v>
       </c>
       <c r="T25">
-        <v>1.161786745427406</v>
+        <v>0.9498579303761091</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.8386491562959592</v>
+        <v>1.212438411798979</v>
       </c>
       <c r="D26">
-        <v>0.3732002823117418</v>
+        <v>1.142429010762398</v>
       </c>
       <c r="E26">
-        <v>1.351062220515084</v>
+        <v>0.9921217950800018</v>
       </c>
       <c r="F26">
-        <v>0.8973540345668162</v>
+        <v>0.9406486785693521</v>
       </c>
       <c r="G26">
-        <v>0.9237306816719274</v>
+        <v>0.8302766116245317</v>
       </c>
       <c r="H26">
-        <v>1.139827550582419</v>
+        <v>1.268981835564233</v>
       </c>
       <c r="I26">
-        <v>0.8386491562959592</v>
+        <v>1.212438411798979</v>
       </c>
       <c r="J26">
-        <v>1.139827550582419</v>
+        <v>1.268981835564233</v>
       </c>
       <c r="K26">
-        <v>0.8386491562959592</v>
+        <v>1.212438411798979</v>
       </c>
       <c r="L26">
-        <v>0.9237306816719274</v>
+        <v>0.8302766116245317</v>
       </c>
       <c r="M26">
-        <v>1.031779116127173</v>
+        <v>1.049629223594382</v>
       </c>
       <c r="N26">
-        <v>1.031779116127173</v>
+        <v>1.049629223594382</v>
       </c>
       <c r="O26">
-        <v>1.13820681758981</v>
+        <v>1.030460080756256</v>
       </c>
       <c r="P26">
-        <v>0.9674024628501018</v>
+        <v>1.103898952995915</v>
       </c>
       <c r="Q26">
-        <v>0.9674024628501018</v>
+        <v>1.103898952995915</v>
       </c>
       <c r="R26">
-        <v>0.9352141362115661</v>
+        <v>1.131033817696681</v>
       </c>
       <c r="S26">
-        <v>0.9352141362115661</v>
+        <v>1.131033817696681</v>
       </c>
       <c r="T26">
-        <v>0.9206373209906579</v>
+        <v>1.064482723899916</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9664443216067362</v>
+        <v>0.2404702404141349</v>
       </c>
       <c r="D27">
-        <v>1.063381027047922</v>
+        <v>0.04375825964634195</v>
       </c>
       <c r="E27">
-        <v>0.9820780324749061</v>
+        <v>2.166991480852296</v>
       </c>
       <c r="F27">
-        <v>1.008743120901387</v>
+        <v>0.4076798692637058</v>
       </c>
       <c r="G27">
-        <v>1.039176766960464</v>
+        <v>0.4758779848770467</v>
       </c>
       <c r="H27">
-        <v>0.8799281347641448</v>
+        <v>3.635942637510909</v>
       </c>
       <c r="I27">
-        <v>0.9664443216067362</v>
+        <v>0.2404702404141349</v>
       </c>
       <c r="J27">
-        <v>0.8799281347641448</v>
+        <v>3.635942637510909</v>
       </c>
       <c r="K27">
-        <v>0.9664443216067362</v>
+        <v>0.2404702404141349</v>
       </c>
       <c r="L27">
-        <v>1.039176766960464</v>
+        <v>0.4758779848770467</v>
       </c>
       <c r="M27">
-        <v>0.9595524508623045</v>
+        <v>2.055910311193978</v>
       </c>
       <c r="N27">
-        <v>0.9595524508623045</v>
+        <v>2.055910311193978</v>
       </c>
       <c r="O27">
-        <v>0.967060978066505</v>
+        <v>2.092937367746751</v>
       </c>
       <c r="P27">
-        <v>0.9618497411104484</v>
+        <v>1.45076362093403</v>
       </c>
       <c r="Q27">
-        <v>0.9618497411104484</v>
+        <v>1.45076362093403</v>
       </c>
       <c r="R27">
-        <v>0.9629983862345204</v>
+        <v>1.148190275804057</v>
       </c>
       <c r="S27">
-        <v>0.9629983862345204</v>
+        <v>1.148190275804057</v>
       </c>
       <c r="T27">
-        <v>0.9899585672925935</v>
+        <v>1.161786745427406</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.7601716800128608</v>
+        <v>0.8386491562959592</v>
       </c>
       <c r="D28">
-        <v>1.228039301364555</v>
+        <v>0.3732002823117418</v>
       </c>
       <c r="E28">
-        <v>1.120870462424089</v>
+        <v>1.351062220515084</v>
       </c>
       <c r="F28">
-        <v>0.9163540078698756</v>
+        <v>0.8973540345668162</v>
       </c>
       <c r="G28">
-        <v>0.9981307301339544</v>
+        <v>0.9237306816719274</v>
       </c>
       <c r="H28">
-        <v>1.344067653843549</v>
+        <v>1.139827550582419</v>
       </c>
       <c r="I28">
-        <v>0.7601716800128608</v>
+        <v>0.8386491562959592</v>
       </c>
       <c r="J28">
-        <v>1.344067653843549</v>
+        <v>1.139827550582419</v>
       </c>
       <c r="K28">
-        <v>0.7601716800128608</v>
+        <v>0.8386491562959592</v>
       </c>
       <c r="L28">
-        <v>0.9981307301339544</v>
+        <v>0.9237306816719274</v>
       </c>
       <c r="M28">
-        <v>1.171099191988752</v>
+        <v>1.031779116127173</v>
       </c>
       <c r="N28">
-        <v>1.171099191988752</v>
+        <v>1.031779116127173</v>
       </c>
       <c r="O28">
-        <v>1.154356282133864</v>
+        <v>1.13820681758981</v>
       </c>
       <c r="P28">
-        <v>1.034123354663455</v>
+        <v>0.9674024628501018</v>
       </c>
       <c r="Q28">
-        <v>1.034123354663455</v>
+        <v>0.9674024628501018</v>
       </c>
       <c r="R28">
-        <v>0.9656354360008064</v>
+        <v>0.9352141362115661</v>
       </c>
       <c r="S28">
-        <v>0.9656354360008064</v>
+        <v>0.9352141362115661</v>
       </c>
       <c r="T28">
-        <v>1.061272305941481</v>
+        <v>0.9206373209906579</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9664443216067362</v>
+      </c>
+      <c r="D29">
+        <v>1.063381027047922</v>
+      </c>
+      <c r="E29">
+        <v>0.9820780324749061</v>
+      </c>
+      <c r="F29">
+        <v>1.008743120901387</v>
+      </c>
+      <c r="G29">
+        <v>1.039176766960464</v>
+      </c>
+      <c r="H29">
+        <v>0.8799281347641448</v>
+      </c>
+      <c r="I29">
+        <v>0.9664443216067362</v>
+      </c>
+      <c r="J29">
+        <v>0.8799281347641448</v>
+      </c>
+      <c r="K29">
+        <v>0.9664443216067362</v>
+      </c>
+      <c r="L29">
+        <v>1.039176766960464</v>
+      </c>
+      <c r="M29">
+        <v>0.9595524508623045</v>
+      </c>
+      <c r="N29">
+        <v>0.9595524508623045</v>
+      </c>
+      <c r="O29">
+        <v>0.967060978066505</v>
+      </c>
+      <c r="P29">
+        <v>0.9618497411104484</v>
+      </c>
+      <c r="Q29">
+        <v>0.9618497411104484</v>
+      </c>
+      <c r="R29">
+        <v>0.9629983862345204</v>
+      </c>
+      <c r="S29">
+        <v>0.9629983862345204</v>
+      </c>
+      <c r="T29">
+        <v>0.9899585672925935</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.7601716800128608</v>
+      </c>
+      <c r="D30">
+        <v>1.228039301364555</v>
+      </c>
+      <c r="E30">
+        <v>1.120870462424089</v>
+      </c>
+      <c r="F30">
+        <v>0.9163540078698756</v>
+      </c>
+      <c r="G30">
+        <v>0.9981307301339544</v>
+      </c>
+      <c r="H30">
+        <v>1.344067653843549</v>
+      </c>
+      <c r="I30">
+        <v>0.7601716800128608</v>
+      </c>
+      <c r="J30">
+        <v>1.344067653843549</v>
+      </c>
+      <c r="K30">
+        <v>0.7601716800128608</v>
+      </c>
+      <c r="L30">
+        <v>0.9981307301339544</v>
+      </c>
+      <c r="M30">
+        <v>1.171099191988752</v>
+      </c>
+      <c r="N30">
+        <v>1.171099191988752</v>
+      </c>
+      <c r="O30">
+        <v>1.154356282133864</v>
+      </c>
+      <c r="P30">
+        <v>1.034123354663455</v>
+      </c>
+      <c r="Q30">
+        <v>1.034123354663455</v>
+      </c>
+      <c r="R30">
+        <v>0.9656354360008064</v>
+      </c>
+      <c r="S30">
+        <v>0.9656354360008064</v>
+      </c>
+      <c r="T30">
+        <v>1.061272305941481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.4662892099690821</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.01328740527117</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.199266511457424</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9523693865403743</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.179759490263655</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.216807827568076</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.4662892099690821</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.216807827568076</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.4662892099690821</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.179759490263655</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.198283658915866</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.198283658915866</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.198611276429719</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9542855092669379</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9542855092669379</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.8322864344424739</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.8322864344424739</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.004629971844964</v>
       </c>
     </row>
